--- a/after_pandas.xlsx
+++ b/after_pandas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>Марка, модель</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Porsche Panamera 4 II Рестайлинг</t>
   </si>
   <si>
+    <t>Porsche Taycan 4 Cross Turismo I</t>
+  </si>
+  <si>
     <t>Комплектация</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Базовая</t>
   </si>
   <si>
+    <t>Импорт</t>
+  </si>
+  <si>
     <t>Macan</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
     <t>Panamera 4</t>
   </si>
   <si>
+    <t>Panamera 4 Platinum Edition</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Модификация</t>
   </si>
   <si>
@@ -82,15 +94,24 @@
     <t>хэтчбек 5 дв. / 2.9 л  /  330 л.с.  /  бензин / робот / полный</t>
   </si>
   <si>
+    <t>универсал 5 дв. / 476 л.с.  /  350 квт  /  электро / заряд на 456 км / полный</t>
+  </si>
+  <si>
     <t>Год</t>
   </si>
   <si>
     <t>Имя дилера</t>
   </si>
   <si>
+    <t>Car Expo</t>
+  </si>
+  <si>
     <t>РОЛЬФ Ясенево</t>
   </si>
   <si>
+    <t>Porsche Центр Ленинский</t>
+  </si>
+  <si>
     <t>АВИЛОН Премиум</t>
   </si>
   <si>
@@ -103,6 +124,12 @@
     <t>РОЛЬФ Север</t>
   </si>
   <si>
+    <t>JETCAR</t>
+  </si>
+  <si>
+    <t>КЛЮЧАВТО Люберцы</t>
+  </si>
+  <si>
     <t>БорисХоф Люкс</t>
   </si>
   <si>
@@ -127,73 +154,118 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118518888-1c7fe66c/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118327264-69e02d6c/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118685492-3f3fd2c9/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1117262245-c344d5c2/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118602376-829f9d69/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118959170-0abc4264/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/22305025/23121940/1118526145-3fa80a74/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/22305025/23121940/1118608198-9b17e0fc/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/22304902/22305046/1118669063-4089cded/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118720134-fcdd3940/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1117657072-2e813e78/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118562069-17a24164/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1117900984-450be740/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1118739137-caca4bdb/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118876964-41a9bfbe/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118381708-d7fadeab/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118950105-f3b75e8a/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118849754-4e7109a6/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118410117-200abb01/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118056889-9242073e/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118826148-87e021c0/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118706556-2692d498/?geo_id=213</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/panamera/22482843/22482997/1118876965-3d4dd44d/?geo_id=213</t>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118319170-a58d3322/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118518888-1c7fe66c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118673862-36242fe2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118327264-69e02d6c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118685492-3f3fd2c9/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1117262245-c344d5c2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118443869-f719cd1a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118602376-829f9d69/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118959170-0abc4264/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1119027357-023100da/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/22305025/23121940/1118526145-3fa80a74/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/22305025/23121940/1118608198-9b17e0fc/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/22304902/22305046/1118669063-4089cded/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/22304902/22305046/1118581897-a64b5361/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118720134-fcdd3940/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1117657072-2e813e78/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1117968678-393115c2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118562069-17a24164/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1117900984-450be740/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1118306625-d710748a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1118739137-caca4bdb/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23538368/1119005342-86f28b94/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23538368/1118976193-2b72b9dd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1119021268-c04b82e0/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118942177-a1e3e77a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118381709-a22b80c6/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118950105-f3b75e8a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1119027356-c0d6c33c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118849754-4e7109a6/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118056889-9242073e/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118410117-200abb01/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118319126-c9c3c3f0/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118826148-87e021c0/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118673861-e575e5aa/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118706556-2692d498/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/panamera/22482843/22482997/1118876965-3d4dd44d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/panamera/22482843/23108859/1118975714-ac202594/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/taycan/22802712/22803195/1118985560-f5b7e974/</t>
   </si>
   <si>
     <t>В наличии</t>
@@ -544,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,40 +627,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -596,95 +668,86 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>14400000</v>
+        <v>12500000</v>
       </c>
       <c r="G2">
-        <v>14400000</v>
+        <v>12500000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-2807200</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-2807200</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="E3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>15307200</v>
+        <v>13200000</v>
       </c>
       <c r="G3">
-        <v>15307200</v>
+        <v>13800000</v>
       </c>
       <c r="H3">
-        <v>907200</v>
+        <v>-2107200</v>
       </c>
       <c r="I3">
-        <v>907200</v>
+        <v>-1507200</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>2022</v>
-      </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>13800000</v>
+        <v>14970000</v>
       </c>
       <c r="G4">
-        <v>13800000</v>
+        <v>15470000</v>
       </c>
       <c r="H4">
-        <v>-1700000</v>
+        <v>-337200</v>
       </c>
       <c r="I4">
-        <v>-1700000</v>
+        <v>162800</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -692,118 +755,94 @@
     </row>
     <row r="5" spans="1:13">
       <c r="E5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F5">
+        <v>15307200</v>
+      </c>
+      <c r="G5">
+        <v>15307200</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>13700000</v>
+      </c>
+      <c r="G6">
+        <v>13700000</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
         <v>13800000</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>13800000</v>
       </c>
-      <c r="H5">
-        <v>-1700000</v>
-      </c>
-      <c r="I5">
-        <v>-1700000</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>15500000</v>
-      </c>
-      <c r="G6">
-        <v>15500000</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>2023</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>14200000</v>
-      </c>
-      <c r="G7">
-        <v>14500000</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>2022</v>
-      </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>18600000</v>
+        <v>14440000</v>
       </c>
       <c r="G8">
-        <v>18600000</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>14440000</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -811,130 +850,100 @@
     </row>
     <row r="9" spans="1:13">
       <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>20490000</v>
+        <v>14900000</v>
       </c>
       <c r="G9">
-        <v>20990000</v>
-      </c>
-      <c r="H9">
-        <v>1890000</v>
-      </c>
-      <c r="I9">
-        <v>2390000</v>
+        <v>15500000</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>14200000</v>
+      </c>
+      <c r="G10">
+        <v>14500000</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>15700000</v>
+      </c>
+      <c r="G11">
+        <v>15700000</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>2022</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>18500000</v>
-      </c>
-      <c r="G10">
-        <v>18500000</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>2021</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>14800000</v>
-      </c>
-      <c r="G11">
-        <v>14800000</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>2022</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>12500000</v>
+        <v>18000000</v>
       </c>
       <c r="G12">
-        <v>12500000</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>18600000</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -942,361 +951,676 @@
     </row>
     <row r="13" spans="1:13">
       <c r="E13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>15195000</v>
+        <v>20490000</v>
       </c>
       <c r="G13">
-        <v>15495000</v>
-      </c>
-      <c r="H13">
-        <v>2695000</v>
-      </c>
-      <c r="I13">
-        <v>2995000</v>
+        <v>20990000</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>2022</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>11300000</v>
+        <v>17900000</v>
       </c>
       <c r="G14">
-        <v>11900000</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>18500000</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="E15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <v>11990000</v>
+        <v>17916000</v>
       </c>
       <c r="G15">
-        <v>11990000</v>
-      </c>
-      <c r="H15">
-        <v>690000</v>
-      </c>
-      <c r="I15">
-        <v>90000</v>
+        <v>18416000</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>2021</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>14800000</v>
+      </c>
+      <c r="G16">
+        <v>14800000</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>11900000</v>
+      </c>
+      <c r="G17">
+        <v>12500000</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>13425000</v>
+      </c>
+      <c r="G18">
+        <v>13925000</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>15195000</v>
+      </c>
+      <c r="G19">
+        <v>15495000</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16">
-        <v>9800000</v>
-      </c>
-      <c r="G16">
-        <v>9800000</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17">
-        <v>9990000</v>
-      </c>
-      <c r="G17">
-        <v>9990000</v>
-      </c>
-      <c r="H17">
-        <v>190000</v>
-      </c>
-      <c r="I17">
-        <v>190000</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18">
-        <v>10690000</v>
-      </c>
-      <c r="G18">
-        <v>10990000</v>
-      </c>
-      <c r="H18">
-        <v>890000</v>
-      </c>
-      <c r="I18">
-        <v>1190000</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>2023</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19">
-        <v>10990000</v>
-      </c>
-      <c r="G19">
-        <v>11490000</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>2022</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>9490000</v>
+        <v>11000000</v>
       </c>
       <c r="G20">
-        <v>9790000</v>
-      </c>
-      <c r="H20">
-        <v>-210000</v>
-      </c>
-      <c r="I20">
-        <v>90000</v>
+        <v>11600000</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="E21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>9700000</v>
+        <v>11100000</v>
       </c>
       <c r="G21">
-        <v>9700000</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>11100000</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="E22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F22">
-        <v>9800000</v>
+        <v>11990000</v>
       </c>
       <c r="G22">
-        <v>9800000</v>
-      </c>
-      <c r="H22">
-        <v>100000</v>
-      </c>
-      <c r="I22">
-        <v>100000</v>
+        <v>11990000</v>
       </c>
       <c r="J22">
         <v>4</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>13923000</v>
+      </c>
+      <c r="G23">
+        <v>13923000</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>2023</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>14000000</v>
+      </c>
+      <c r="G24">
+        <v>14830000</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>9500000</v>
+      </c>
+      <c r="G25">
+        <v>9500000</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>9796000</v>
+      </c>
+      <c r="G26">
+        <v>10296000</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>9990000</v>
+      </c>
+      <c r="G27">
+        <v>9990000</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>10690000</v>
+      </c>
+      <c r="G28">
+        <v>10990000</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>2023</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>9970000</v>
+      </c>
+      <c r="G29">
+        <v>9970000</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>10990000</v>
+      </c>
+      <c r="G30">
+        <v>11490000</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>9100000</v>
+      </c>
+      <c r="G31">
+        <v>9700000</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>9490000</v>
+      </c>
+      <c r="G32">
+        <v>9790000</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>9598000</v>
+      </c>
+      <c r="G33">
+        <v>9598000</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>9800000</v>
+      </c>
+      <c r="G34">
+        <v>9800000</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>10227738</v>
+      </c>
+      <c r="G35">
+        <v>10727738</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>2023</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <v>10288000</v>
+      </c>
+      <c r="G36">
+        <v>10838000</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>16500000</v>
+      </c>
+      <c r="G37">
+        <v>17100000</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>2023</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>17700000</v>
+      </c>
+      <c r="G38">
+        <v>18450000</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="D23">
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
         <v>2023</v>
       </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23">
-        <v>10288000</v>
-      </c>
-      <c r="G23">
-        <v>10838000</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>2022</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24">
-        <v>17100000</v>
-      </c>
-      <c r="G24">
-        <v>17100000</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24">
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39">
+        <v>18400000</v>
+      </c>
+      <c r="G39">
+        <v>18900000</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39">
         <v>1</v>
       </c>
     </row>
@@ -1325,6 +1649,21 @@
     <hyperlink ref="K22" r:id="rId21"/>
     <hyperlink ref="K23" r:id="rId22"/>
     <hyperlink ref="K24" r:id="rId23"/>
+    <hyperlink ref="K25" r:id="rId24"/>
+    <hyperlink ref="K26" r:id="rId25"/>
+    <hyperlink ref="K27" r:id="rId26"/>
+    <hyperlink ref="K28" r:id="rId27"/>
+    <hyperlink ref="K29" r:id="rId28"/>
+    <hyperlink ref="K30" r:id="rId29"/>
+    <hyperlink ref="K31" r:id="rId30"/>
+    <hyperlink ref="K32" r:id="rId31"/>
+    <hyperlink ref="K33" r:id="rId32"/>
+    <hyperlink ref="K34" r:id="rId33"/>
+    <hyperlink ref="K35" r:id="rId34"/>
+    <hyperlink ref="K36" r:id="rId35"/>
+    <hyperlink ref="K37" r:id="rId36"/>
+    <hyperlink ref="K38" r:id="rId37"/>
+    <hyperlink ref="K39" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/after_pandas.xlsx
+++ b/after_pandas.xlsx
@@ -14,87 +14,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
   <si>
     <t>Марка, модель</t>
   </si>
   <si>
-    <t>Porsche Cayenne Coupé III</t>
-  </si>
-  <si>
-    <t>Porsche Cayenne GTS Coupé III</t>
-  </si>
-  <si>
-    <t>Porsche Cayenne GTS III</t>
-  </si>
-  <si>
-    <t>Porsche Cayenne III</t>
-  </si>
-  <si>
-    <t>Porsche Macan I Рестайлинг 2</t>
-  </si>
-  <si>
-    <t>Porsche Panamera 4 II Рестайлинг</t>
-  </si>
-  <si>
-    <t>Porsche Taycan 4 Cross Turismo I</t>
+    <t>FAW Bestune B70</t>
+  </si>
+  <si>
+    <t>FAW Bestune NAT 54.4 kWh</t>
+  </si>
+  <si>
+    <t>FAW Bestune T55</t>
+  </si>
+  <si>
+    <t>FAW Bestune T77</t>
+  </si>
+  <si>
+    <t>FAW Bestune T99 I</t>
+  </si>
+  <si>
+    <t>FAW Besturn X40 I</t>
   </si>
   <si>
     <t>Комплектация</t>
   </si>
   <si>
-    <t>Coupé</t>
-  </si>
-  <si>
-    <t>Coupé Platinum Edition</t>
-  </si>
-  <si>
-    <t>GTS Coupé</t>
-  </si>
-  <si>
-    <t>GTS</t>
-  </si>
-  <si>
-    <t>Cayenne Platinum Edition</t>
-  </si>
-  <si>
-    <t>Базовая</t>
-  </si>
-  <si>
-    <t>Импорт</t>
-  </si>
-  <si>
-    <t>Macan</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Panamera 4</t>
-  </si>
-  <si>
-    <t>Panamera 4 Platinum Edition</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Enjoyment</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Delight</t>
+  </si>
+  <si>
+    <t>Transcend</t>
+  </si>
+  <si>
+    <t>LUXURY (DCT)</t>
+  </si>
+  <si>
+    <t>LUXURY (MT)</t>
+  </si>
+  <si>
+    <t>PRESTIGE (DCT)</t>
+  </si>
+  <si>
+    <t>PRESTIGE PLUS (DCT)</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Luxury</t>
   </si>
   <si>
     <t>Модификация</t>
   </si>
   <si>
-    <t>внедорожник 5 дв. / 3.0 л  /  340 л.с.  /  бензин / автомат / полный</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 4.0 л  /  460 л.с.  /  бензин / автомат / полный</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 2.0 л  /  265 л.с.  /  бензин / робот / полный</t>
-  </si>
-  <si>
-    <t>хэтчбек 5 дв. / 2.9 л  /  330 л.с.  /  бензин / робот / полный</t>
-  </si>
-  <si>
-    <t>универсал 5 дв. / 476 л.с.  /  350 квт  /  электро / заряд на 456 км / полный</t>
+    <t>лифтбек / 2.0 л  /  217 л.с.  /  бензин / автомат / передний</t>
+  </si>
+  <si>
+    <t>лифтбек / 1.5 л  /  160 л.с.  /  бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>лифтбек / 1.5 л  /  169 л.с.  /  бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>минивэн / 163 л.с.  /  120 квт  /  электро / заряд на 425 км / передний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 1.5 л  /  160 л.с.  /  бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 1.5 л  /  160 л.с.  /  бензин / механика / передний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.0 л  /  224 л.с.  /  бензин / автомат / передний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 1.6 л  /  108 л.с.  /  бензин / механика / передний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 1.6 л  /  108 л.с.  /  бензин / автомат / передний</t>
   </si>
   <si>
     <t>Год</t>
@@ -103,37 +115,43 @@
     <t>Имя дилера</t>
   </si>
   <si>
-    <t>Car Expo</t>
-  </si>
-  <si>
-    <t>РОЛЬФ Ясенево</t>
-  </si>
-  <si>
-    <t>Porsche Центр Ленинский</t>
-  </si>
-  <si>
-    <t>АВИЛОН Премиум</t>
-  </si>
-  <si>
-    <t>Автодом BMW Зорге</t>
-  </si>
-  <si>
-    <t>Porsche Центр Таганка</t>
-  </si>
-  <si>
-    <t>РОЛЬФ Север</t>
-  </si>
-  <si>
-    <t>JETCAR</t>
-  </si>
-  <si>
-    <t>КЛЮЧАВТО Люберцы</t>
-  </si>
-  <si>
-    <t>БорисХоф Люкс</t>
-  </si>
-  <si>
-    <t>Дилерский центр Алтуфьево</t>
+    <t>FAW Центр ТЕХИНКОМ МКАД 47 км</t>
+  </si>
+  <si>
+    <t>FAW Центр Автопрестус</t>
+  </si>
+  <si>
+    <t>FAW Центр Автоимпорт Тула</t>
+  </si>
+  <si>
+    <t>Major FAW Москва</t>
+  </si>
+  <si>
+    <t>FAW Центр Тауэр ЛТД Орехово-Зуево</t>
+  </si>
+  <si>
+    <t>АВИЛОН FAW</t>
+  </si>
+  <si>
+    <t>Автокласс СП Jetta Тула</t>
+  </si>
+  <si>
+    <t>FAW Центр Автомир</t>
+  </si>
+  <si>
+    <t>FAW Центр ТОРГМАШ-Юг Москва</t>
+  </si>
+  <si>
+    <t>АвтоТракт Групп</t>
+  </si>
+  <si>
+    <t>FAW Центр ТОРГМАШ-Север Москва</t>
+  </si>
+  <si>
+    <t>АВАНТА FAW Москва</t>
+  </si>
+  <si>
+    <t>FAW Центр Долавто</t>
   </si>
   <si>
     <t>Цена со скидками</t>
@@ -154,118 +172,130 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118319170-a58d3322/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118518888-1c7fe66c/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118673862-36242fe2/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118327264-69e02d6c/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118685492-3f3fd2c9/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1117262245-c344d5c2/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118443869-f719cd1a/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118602376-829f9d69/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118959170-0abc4264/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1119027357-023100da/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/22305025/23121940/1118526145-3fa80a74/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/22305025/23121940/1118608198-9b17e0fc/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/22304902/22305046/1118669063-4089cded/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/22304902/22305046/1118581897-a64b5361/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118720134-fcdd3940/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1117657072-2e813e78/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1117968678-393115c2/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118562069-17a24164/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1117900984-450be740/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1118306625-d710748a/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1118739137-caca4bdb/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23538368/1119005342-86f28b94/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23538368/1118976193-2b72b9dd/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1119021268-c04b82e0/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118942177-a1e3e77a/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118381709-a22b80c6/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118950105-f3b75e8a/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1119027356-c0d6c33c/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118849754-4e7109a6/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118056889-9242073e/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118410117-200abb01/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118319126-c9c3c3f0/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118826148-87e021c0/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118673861-e575e5aa/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118706556-2692d498/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/panamera/22482843/22482997/1118876965-3d4dd44d/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/panamera/22482843/23108859/1118975714-ac202594/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/porsche/taycan/22802712/22803195/1118985560-f5b7e974/</t>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564282/1118791942-e00ed95f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564282/1118704340-5d453dc4/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564282/1118696685-a77f59b7/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564282/1119004197-d9ac94fa/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564155/23557853/1118840939-c2f7df2b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564155/23564216/1118791941-b66cf143/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564155/23564216/1118888431-9e1fbc26/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23363890/23416354/1117324504-31206207/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564262/1118704388-2ffc794b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564262/1118789077-b38611dd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564262/1118696950-64e63f8b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564262/1119045791-3ff3ab7c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_nat/23421323/23421518/1118914743-bfb24f36/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t55/23564472/23564483/1119010032-e8c96e54/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t55/23564472/23564483/1118787166-aebf0fe7/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t55/23564472/23564483/1118748600-8307be0c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157095/1118791944-47186f58/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157095/1118487221-b4bddd35/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157095/1119047875-5fcd5f2b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157095/1119035520-408710ff/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157074/23157099/1118791943-cf331480/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157074/23157099/1117994709-6a536341/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1118672748-85a01fdc/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1117994717-6dbc05cf/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1115934415-ef0f7bef/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1118488429-a23aef96/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1116771318-bb0d72ec/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1119014703-f99a9f0b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1116784297-2f24479c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118541566-15a6b1e4/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118477469-f6a15768/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118123297-acb57826/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118319157-089a1d94/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118766079-744bbb7d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118061184-5ac55756/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118479425-84ddd8b7/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1119014704-56541ce9/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118849264-5b0563fc/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/bestune_t99/22368092/23417796/1117334008-e74cbb64/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/besturn_x40/21517884/21605740/1118798633-efb8acd3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/besturn_x40/21517888/21605982/1117617428-cfcfca1a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/faw/besturn_x40/21517888/21605982/1116810506-405c5460/</t>
   </si>
   <si>
     <t>В наличии</t>
@@ -616,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,40 +657,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -668,34 +698,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>12500000</v>
+        <v>2378376</v>
       </c>
       <c r="G2">
-        <v>12500000</v>
-      </c>
-      <c r="H2">
-        <v>-2807200</v>
-      </c>
-      <c r="I2">
-        <v>-2807200</v>
+        <v>2778376</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -703,166 +727,172 @@
     </row>
     <row r="3" spans="1:13">
       <c r="E3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>13200000</v>
+        <v>2518376</v>
       </c>
       <c r="G3">
-        <v>13800000</v>
-      </c>
-      <c r="H3">
-        <v>-2107200</v>
-      </c>
-      <c r="I3">
-        <v>-1507200</v>
+        <v>2778376</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>14970000</v>
+        <v>2880000</v>
       </c>
       <c r="G4">
-        <v>15470000</v>
-      </c>
-      <c r="H4">
-        <v>-337200</v>
-      </c>
-      <c r="I4">
-        <v>162800</v>
+        <v>2980000</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>15307200</v>
+        <v>2918376</v>
       </c>
       <c r="G5">
-        <v>15307200</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2978376</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>2349000</v>
+      </c>
+      <c r="G6">
+        <v>2499000</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F6">
-        <v>13700000</v>
-      </c>
-      <c r="G6">
-        <v>13700000</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7">
-        <v>13800000</v>
+        <v>2036270</v>
       </c>
       <c r="G7">
-        <v>13800000</v>
+        <v>2436270</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="E8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>14440000</v>
+        <v>2576270</v>
       </c>
       <c r="G8">
-        <v>14440000</v>
+        <v>2636270</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>14900000</v>
+        <v>2250000</v>
       </c>
       <c r="G9">
-        <v>15500000</v>
+        <v>2500000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -870,7 +900,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -882,68 +912,56 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>14200000</v>
+        <v>2421776</v>
       </c>
       <c r="G10">
-        <v>14500000</v>
+        <v>2681776</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>15700000</v>
+        <v>2470000</v>
       </c>
       <c r="G11">
-        <v>15700000</v>
+        <v>2950000</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>2022</v>
-      </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>18000000</v>
+        <v>2790000</v>
       </c>
       <c r="G12">
-        <v>18600000</v>
+        <v>2890000</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -951,155 +969,164 @@
     </row>
     <row r="13" spans="1:13">
       <c r="E13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>20490000</v>
+        <v>2821776</v>
       </c>
       <c r="G13">
-        <v>20990000</v>
+        <v>2881776</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>2022</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>17900000</v>
+        <v>2450000</v>
       </c>
       <c r="G14">
-        <v>18500000</v>
+        <v>2700000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>2211410</v>
+      </c>
+      <c r="G15">
+        <v>2571410</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>2240000</v>
+      </c>
+      <c r="G16">
+        <v>2720000</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>2372000</v>
+      </c>
+      <c r="G17">
+        <v>2372000</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>2022</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>1473000</v>
+      </c>
+      <c r="G18">
+        <v>2273000</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18">
         <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15">
-        <v>17916000</v>
-      </c>
-      <c r="G15">
-        <v>18416000</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>2021</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16">
-        <v>14800000</v>
-      </c>
-      <c r="G16">
-        <v>14800000</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>2022</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>11900000</v>
-      </c>
-      <c r="G17">
-        <v>12500000</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>13425000</v>
-      </c>
-      <c r="G18">
-        <v>13925000</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1107,114 +1134,105 @@
         <v>34</v>
       </c>
       <c r="F19">
-        <v>15195000</v>
+        <v>2063000</v>
       </c>
       <c r="G19">
-        <v>15495000</v>
+        <v>2273000</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>2022</v>
-      </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>11000000</v>
+        <v>2123000</v>
       </c>
       <c r="G20">
-        <v>11600000</v>
+        <v>2273000</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="E21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>11100000</v>
+        <v>2225000</v>
       </c>
       <c r="G21">
-        <v>11100000</v>
+        <v>2575000</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22">
-        <v>11990000</v>
+        <v>1369000</v>
       </c>
       <c r="G22">
-        <v>11990000</v>
+        <v>2169000</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>2022</v>
-      </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23">
-        <v>13923000</v>
+        <v>1543100</v>
       </c>
       <c r="G23">
-        <v>13923000</v>
+        <v>2353100</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1222,152 +1240,167 @@
     </row>
     <row r="24" spans="1:13">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>14000000</v>
+        <v>1902000</v>
       </c>
       <c r="G24">
-        <v>14830000</v>
+        <v>2450000</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>2022</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>9500000</v>
+        <v>1747000</v>
       </c>
       <c r="G25">
-        <v>9500000</v>
+        <v>2557000</v>
+      </c>
+      <c r="H25">
+        <v>-403000</v>
+      </c>
+      <c r="I25">
+        <v>157000</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="E26" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F26">
-        <v>9796000</v>
+        <v>2150000</v>
       </c>
       <c r="G26">
-        <v>10296000</v>
+        <v>2400000</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27">
-        <v>9990000</v>
+        <v>2172000</v>
       </c>
       <c r="G27">
-        <v>9990000</v>
+        <v>2432000</v>
+      </c>
+      <c r="H27">
+        <v>22000</v>
+      </c>
+      <c r="I27">
+        <v>32000</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="E28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>10690000</v>
+        <v>2302000</v>
       </c>
       <c r="G28">
-        <v>10990000</v>
+        <v>2652000</v>
+      </c>
+      <c r="H28">
+        <v>152000</v>
+      </c>
+      <c r="I28">
+        <v>252000</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>2023</v>
-      </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F29">
-        <v>9970000</v>
+        <v>2350000</v>
       </c>
       <c r="G29">
-        <v>9970000</v>
+        <v>2500000</v>
+      </c>
+      <c r="H29">
+        <v>200000</v>
+      </c>
+      <c r="I29">
+        <v>100000</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1375,22 +1408,28 @@
     </row>
     <row r="30" spans="1:13">
       <c r="E30" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>10990000</v>
+        <v>2352000</v>
       </c>
       <c r="G30">
-        <v>11490000</v>
+        <v>2702000</v>
+      </c>
+      <c r="H30">
+        <v>202000</v>
+      </c>
+      <c r="I30">
+        <v>302000</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1398,65 +1437,65 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31">
         <v>2022</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>9100000</v>
+        <v>1607300</v>
       </c>
       <c r="G31">
-        <v>9700000</v>
+        <v>2447300</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="E32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32">
-        <v>9490000</v>
+        <v>1632000</v>
       </c>
       <c r="G32">
-        <v>9790000</v>
+        <v>2432000</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="E33" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F33">
-        <v>9598000</v>
+        <v>1732000</v>
       </c>
       <c r="G33">
-        <v>9598000</v>
+        <v>2332000</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L33">
         <v>2</v>
@@ -1464,163 +1503,240 @@
     </row>
     <row r="34" spans="1:13">
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>9800000</v>
+        <v>1772000</v>
       </c>
       <c r="G34">
-        <v>9800000</v>
+        <v>2582000</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="E35" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F35">
-        <v>10227738</v>
+        <v>2160000</v>
       </c>
       <c r="G35">
-        <v>10727738</v>
+        <v>2640000</v>
       </c>
       <c r="J35">
+        <v>44</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36">
+        <v>2282000</v>
+      </c>
+      <c r="G36">
+        <v>2432000</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>2282000</v>
+      </c>
+      <c r="G37">
+        <v>2432000</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>2360000</v>
+      </c>
+      <c r="G38">
+        <v>2510000</v>
+      </c>
+      <c r="J38">
+        <v>56</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>2530000</v>
+      </c>
+      <c r="G39">
+        <v>2680000</v>
+      </c>
+      <c r="J39">
+        <v>43</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40">
+        <v>2023</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <v>2850000</v>
+      </c>
+      <c r="G40">
+        <v>3100000</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>2021</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41">
+        <v>1452000</v>
+      </c>
+      <c r="G41">
+        <v>1702000</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>2021</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>1604000</v>
+      </c>
+      <c r="G42">
+        <v>1854000</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43">
+        <v>1604000</v>
+      </c>
+      <c r="G43">
+        <v>1854000</v>
+      </c>
+      <c r="J43">
         <v>2</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36">
-        <v>2023</v>
-      </c>
-      <c r="E36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36">
-        <v>10288000</v>
-      </c>
-      <c r="G36">
-        <v>10838000</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37">
-        <v>2022</v>
-      </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37">
-        <v>16500000</v>
-      </c>
-      <c r="G37">
-        <v>17100000</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38">
-        <v>17700000</v>
-      </c>
-      <c r="G38">
-        <v>18450000</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39">
-        <v>2023</v>
-      </c>
-      <c r="E39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39">
-        <v>18400000</v>
-      </c>
-      <c r="G39">
-        <v>18900000</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M39">
+      <c r="K43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43">
         <v>1</v>
       </c>
     </row>
@@ -1664,6 +1780,10 @@
     <hyperlink ref="K37" r:id="rId36"/>
     <hyperlink ref="K38" r:id="rId37"/>
     <hyperlink ref="K39" r:id="rId38"/>
+    <hyperlink ref="K40" r:id="rId39"/>
+    <hyperlink ref="K41" r:id="rId40"/>
+    <hyperlink ref="K42" r:id="rId41"/>
+    <hyperlink ref="K43" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/after_pandas.xlsx
+++ b/after_pandas.xlsx
@@ -14,99 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
   <si>
     <t>Марка, модель</t>
   </si>
   <si>
-    <t>FAW Bestune B70</t>
-  </si>
-  <si>
-    <t>FAW Bestune NAT 54.4 kWh</t>
-  </si>
-  <si>
-    <t>FAW Bestune T55</t>
-  </si>
-  <si>
-    <t>FAW Bestune T77</t>
-  </si>
-  <si>
-    <t>FAW Bestune T99 I</t>
-  </si>
-  <si>
-    <t>FAW Besturn X40 I</t>
+    <t>Porsche Cayenne Coupé III</t>
+  </si>
+  <si>
+    <t>Porsche Cayenne GTS Coupé III</t>
+  </si>
+  <si>
+    <t>Porsche Cayenne GTS III</t>
+  </si>
+  <si>
+    <t>Porsche Cayenne III</t>
+  </si>
+  <si>
+    <t>Porsche Macan I Рестайлинг 2</t>
+  </si>
+  <si>
+    <t>Porsche Panamera 4 II Рестайлинг</t>
+  </si>
+  <si>
+    <t>Porsche Taycan 4 Cross Turismo I</t>
   </si>
   <si>
     <t>Комплектация</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Enjoyment</t>
-  </si>
-  <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
-    <t>Smart</t>
-  </si>
-  <si>
-    <t>Delight</t>
-  </si>
-  <si>
-    <t>Transcend</t>
-  </si>
-  <si>
-    <t>LUXURY (DCT)</t>
-  </si>
-  <si>
-    <t>LUXURY (MT)</t>
-  </si>
-  <si>
-    <t>PRESTIGE (DCT)</t>
-  </si>
-  <si>
-    <t>PRESTIGE PLUS (DCT)</t>
-  </si>
-  <si>
-    <t>Noble</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Luxury</t>
+    <t>Coupé</t>
+  </si>
+  <si>
+    <t>Coupé Platinum Edition</t>
+  </si>
+  <si>
+    <t>GTS Coupé</t>
+  </si>
+  <si>
+    <t>GTS</t>
+  </si>
+  <si>
+    <t>Cayenne Platinum Edition</t>
+  </si>
+  <si>
+    <t>Базовая</t>
+  </si>
+  <si>
+    <t>Импорт</t>
+  </si>
+  <si>
+    <t>Macan</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Panamera 4</t>
+  </si>
+  <si>
+    <t>Panamera 4 Platinum Edition</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Модификация</t>
   </si>
   <si>
-    <t>лифтбек / 2.0 л  /  217 л.с.  /  бензин / автомат / передний</t>
-  </si>
-  <si>
-    <t>лифтбек / 1.5 л  /  160 л.с.  /  бензин / робот / передний</t>
-  </si>
-  <si>
-    <t>лифтбек / 1.5 л  /  169 л.с.  /  бензин / робот / передний</t>
-  </si>
-  <si>
-    <t>минивэн / 163 л.с.  /  120 квт  /  электро / заряд на 425 км / передний</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 1.5 л  /  160 л.с.  /  бензин / робот / передний</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 1.5 л  /  160 л.с.  /  бензин / механика / передний</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 2.0 л  /  224 л.с.  /  бензин / автомат / передний</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 1.6 л  /  108 л.с.  /  бензин / механика / передний</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 1.6 л  /  108 л.с.  /  бензин / автомат / передний</t>
+    <t>внедорожник 5 дв. / 3.0 л  /  340 л.с.  /  бензин / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 4.0 л  /  460 л.с.  /  бензин / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.0 л  /  265 л.с.  /  бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>хэтчбек 5 дв. / 2.9 л  /  330 л.с.  /  бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>универсал 5 дв. / 476 л.с.  /  350 квт  /  электро / заряд на 456 км / полный</t>
   </si>
   <si>
     <t>Год</t>
@@ -115,43 +103,37 @@
     <t>Имя дилера</t>
   </si>
   <si>
-    <t>FAW Центр ТЕХИНКОМ МКАД 47 км</t>
-  </si>
-  <si>
-    <t>FAW Центр Автопрестус</t>
-  </si>
-  <si>
-    <t>FAW Центр Автоимпорт Тула</t>
-  </si>
-  <si>
-    <t>Major FAW Москва</t>
-  </si>
-  <si>
-    <t>FAW Центр Тауэр ЛТД Орехово-Зуево</t>
-  </si>
-  <si>
-    <t>АВИЛОН FAW</t>
-  </si>
-  <si>
-    <t>Автокласс СП Jetta Тула</t>
-  </si>
-  <si>
-    <t>FAW Центр Автомир</t>
-  </si>
-  <si>
-    <t>FAW Центр ТОРГМАШ-Юг Москва</t>
-  </si>
-  <si>
-    <t>АвтоТракт Групп</t>
-  </si>
-  <si>
-    <t>FAW Центр ТОРГМАШ-Север Москва</t>
-  </si>
-  <si>
-    <t>АВАНТА FAW Москва</t>
-  </si>
-  <si>
-    <t>FAW Центр Долавто</t>
+    <t>Car Expo</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Ясенево</t>
+  </si>
+  <si>
+    <t>Porsche Центр Ленинский</t>
+  </si>
+  <si>
+    <t>АВИЛОН Премиум</t>
+  </si>
+  <si>
+    <t>Автодом BMW Зорге</t>
+  </si>
+  <si>
+    <t>Porsche Центр Таганка</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Север</t>
+  </si>
+  <si>
+    <t>JETCAR</t>
+  </si>
+  <si>
+    <t>КЛЮЧАВТО Люберцы</t>
+  </si>
+  <si>
+    <t>БорисХоф Люкс</t>
+  </si>
+  <si>
+    <t>Дилерский центр Алтуфьево</t>
   </si>
   <si>
     <t>Цена со скидками</t>
@@ -172,130 +154,118 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564282/1118791942-e00ed95f/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564282/1118704340-5d453dc4/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564282/1118696685-a77f59b7/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564282/1119004197-d9ac94fa/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564155/23557853/1118840939-c2f7df2b/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564155/23564216/1118791941-b66cf143/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564155/23564216/1118888431-9e1fbc26/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23363890/23416354/1117324504-31206207/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564262/1118704388-2ffc794b/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564262/1118789077-b38611dd/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564262/1118696950-64e63f8b/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_b70/23564238/23564262/1119045791-3ff3ab7c/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_nat/23421323/23421518/1118914743-bfb24f36/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t55/23564472/23564483/1119010032-e8c96e54/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t55/23564472/23564483/1118787166-aebf0fe7/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t55/23564472/23564483/1118748600-8307be0c/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157095/1118791944-47186f58/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157095/1118487221-b4bddd35/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157095/1119047875-5fcd5f2b/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157095/1119035520-408710ff/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157074/23157099/1118791943-cf331480/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157074/23157099/1117994709-6a536341/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1118672748-85a01fdc/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1117994717-6dbc05cf/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1115934415-ef0f7bef/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1118488429-a23aef96/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1116771318-bb0d72ec/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1119014703-f99a9f0b/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23157106/1116784297-2f24479c/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118541566-15a6b1e4/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118477469-f6a15768/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118123297-acb57826/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118319157-089a1d94/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118766079-744bbb7d/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118061184-5ac55756/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118479425-84ddd8b7/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1119014704-56541ce9/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t77/23157079/23405216/1118849264-5b0563fc/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/bestune_t99/22368092/23417796/1117334008-e74cbb64/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/besturn_x40/21517884/21605740/1118798633-efb8acd3/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/besturn_x40/21517888/21605982/1117617428-cfcfca1a/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/faw/besturn_x40/21517888/21605982/1116810506-405c5460/</t>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118319170-a58d3322/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118518888-1c7fe66c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118673862-36242fe2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23121941/1118327264-69e02d6c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118685492-3f3fd2c9/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1117262245-c344d5c2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118443869-f719cd1a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118602376-829f9d69/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1118959170-0abc4264/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21539742/23179929/1119027357-023100da/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/22305025/23121940/1118526145-3fa80a74/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/22305025/23121940/1118608198-9b17e0fc/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/22304902/22305046/1118581897-a64b5361/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/22304902/22305046/1118669063-4089cded/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118720134-fcdd3940/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1117657072-2e813e78/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118562069-17a24164/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23179900/1118678933-1304b433/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1118306625-d710748a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1117900984-450be740/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/21189946/1118739138-fa9bd314/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23538368/1119005342-86f28b94/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/cayenne/21081015/23538368/1118976193-2b72b9dd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1119021268-c04b82e0/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118942177-a1e3e77a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118381708-d7fadeab/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118950105-f3b75e8a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1119027356-c0d6c33c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/22979956/1118849754-4e7109a6/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118056889-9242073e/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118410117-200abb01/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118319126-c9c3c3f0/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118826148-87e021c0/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118673861-e575e5aa/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/macan/22979146/23216268/1118706556-2692d498/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/panamera/22482843/22482997/1118876965-3d4dd44d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/panamera/22482843/23108859/1118975714-ac202594/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/porsche/taycan/22802712/22803195/1118985560-f5b7e974/</t>
   </si>
   <si>
     <t>В наличии</t>
@@ -646,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,40 +627,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -698,28 +668,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>2378376</v>
+        <v>12500000</v>
       </c>
       <c r="G2">
-        <v>2778376</v>
+        <v>12500000</v>
+      </c>
+      <c r="H2">
+        <v>-838000</v>
+      </c>
+      <c r="I2">
+        <v>-1438000</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -727,19 +703,25 @@
     </row>
     <row r="3" spans="1:13">
       <c r="E3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>2518376</v>
+        <v>13338000</v>
       </c>
       <c r="G3">
-        <v>2778376</v>
+        <v>13938000</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -747,152 +729,164 @@
     </row>
     <row r="4" spans="1:13">
       <c r="E4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>2880000</v>
+        <v>14970000</v>
       </c>
       <c r="G4">
-        <v>2980000</v>
+        <v>15470000</v>
+      </c>
+      <c r="H4">
+        <v>1632000</v>
+      </c>
+      <c r="I4">
+        <v>1532000</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="E5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>2918376</v>
+        <v>15307200</v>
       </c>
       <c r="G5">
-        <v>2978376</v>
+        <v>15307200</v>
+      </c>
+      <c r="H5">
+        <v>1969200</v>
+      </c>
+      <c r="I5">
+        <v>1369200</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>2349000</v>
+        <v>13700000</v>
       </c>
       <c r="G6">
-        <v>2499000</v>
+        <v>13700000</v>
+      </c>
+      <c r="H6">
+        <v>-1355000</v>
+      </c>
+      <c r="I6">
+        <v>-1955000</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>2023</v>
-      </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>2036270</v>
+        <v>13800000</v>
       </c>
       <c r="G7">
-        <v>2436270</v>
+        <v>13800000</v>
+      </c>
+      <c r="H7">
+        <v>-1255000</v>
+      </c>
+      <c r="I7">
+        <v>-1855000</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="E8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>2576270</v>
+        <v>14440000</v>
       </c>
       <c r="G8">
-        <v>2636270</v>
+        <v>14440000</v>
+      </c>
+      <c r="H8">
+        <v>-615000</v>
+      </c>
+      <c r="I8">
+        <v>-1215000</v>
       </c>
       <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>15055000</v>
+      </c>
+      <c r="G9">
+        <v>15655000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>2022</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>2250000</v>
-      </c>
-      <c r="G9">
-        <v>2500000</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -900,7 +894,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -912,56 +906,86 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>2421776</v>
+        <v>14200000</v>
       </c>
       <c r="G10">
-        <v>2681776</v>
+        <v>14500000</v>
+      </c>
+      <c r="H10">
+        <v>-1500000</v>
+      </c>
+      <c r="I10">
+        <v>-1200000</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>2470000</v>
+        <v>15700000</v>
       </c>
       <c r="G11">
-        <v>2950000</v>
+        <v>15700000</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>2790000</v>
+        <v>18186000</v>
       </c>
       <c r="G12">
-        <v>2890000</v>
+        <v>18786000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -969,270 +993,327 @@
     </row>
     <row r="13" spans="1:13">
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>2821776</v>
+        <v>20490000</v>
       </c>
       <c r="G13">
-        <v>2881776</v>
+        <v>20990000</v>
+      </c>
+      <c r="H13">
+        <v>2304000</v>
+      </c>
+      <c r="I13">
+        <v>2204000</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>2022</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>2450000</v>
+        <v>17916000</v>
       </c>
       <c r="G14">
-        <v>2700000</v>
+        <v>18416000</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-169000</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>-269000</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>18085000</v>
+      </c>
+      <c r="G15">
+        <v>18685000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="K15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
-        <v>2211410</v>
-      </c>
-      <c r="G15">
-        <v>2571410</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>2021</v>
+      </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>2240000</v>
+        <v>14800000</v>
       </c>
       <c r="G16">
-        <v>2720000</v>
+        <v>14800000</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>12025000</v>
+      </c>
+      <c r="G17">
+        <v>12625000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>15195000</v>
+      </c>
+      <c r="G18">
+        <v>15495000</v>
+      </c>
+      <c r="H18">
+        <v>3170000</v>
+      </c>
+      <c r="I18">
+        <v>2870000</v>
+      </c>
+      <c r="J18">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17">
-        <v>2372000</v>
-      </c>
-      <c r="G17">
-        <v>2372000</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>2022</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18">
-        <v>1473000</v>
-      </c>
-      <c r="G18">
-        <v>2273000</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>2023</v>
+      </c>
       <c r="E19" t="s">
         <v>34</v>
       </c>
       <c r="F19">
-        <v>2063000</v>
+        <v>12990000</v>
       </c>
       <c r="G19">
-        <v>2273000</v>
+        <v>13490000</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
+      </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>2123000</v>
+        <v>11100000</v>
       </c>
       <c r="G20">
-        <v>2273000</v>
+        <v>11100000</v>
+      </c>
+      <c r="H20">
+        <v>-16000</v>
+      </c>
+      <c r="I20">
+        <v>-616000</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="E21" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>2225000</v>
+        <v>11116000</v>
       </c>
       <c r="G21">
-        <v>2575000</v>
+        <v>11716000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>2022</v>
-      </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22">
-        <v>1369000</v>
+        <v>11990000</v>
       </c>
       <c r="G22">
-        <v>2169000</v>
+        <v>11990000</v>
+      </c>
+      <c r="H22">
+        <v>874000</v>
+      </c>
+      <c r="I22">
+        <v>274000</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23">
-        <v>1543100</v>
+        <v>13923000</v>
       </c>
       <c r="G23">
-        <v>2353100</v>
+        <v>13923000</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1240,167 +1321,182 @@
     </row>
     <row r="24" spans="1:13">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24">
-        <v>1902000</v>
+        <v>14000000</v>
       </c>
       <c r="G24">
-        <v>2450000</v>
+        <v>14830000</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>2022</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>1747000</v>
+        <v>9595000</v>
       </c>
       <c r="G25">
-        <v>2557000</v>
+        <v>9595000</v>
       </c>
       <c r="H25">
-        <v>-403000</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>157000</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L25">
         <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="E26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F26">
-        <v>2150000</v>
+        <v>9796000</v>
       </c>
       <c r="G26">
-        <v>2400000</v>
+        <v>10296000</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>201000</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>701000</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="E27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>2172000</v>
+        <v>9990000</v>
       </c>
       <c r="G27">
-        <v>2432000</v>
+        <v>9990000</v>
       </c>
       <c r="H27">
-        <v>22000</v>
+        <v>395000</v>
       </c>
       <c r="I27">
-        <v>32000</v>
+        <v>395000</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="E28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F28">
-        <v>2302000</v>
+        <v>10690000</v>
       </c>
       <c r="G28">
-        <v>2652000</v>
+        <v>10990000</v>
       </c>
       <c r="H28">
-        <v>152000</v>
+        <v>1095000</v>
       </c>
       <c r="I28">
-        <v>252000</v>
+        <v>1395000</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:13">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>2023</v>
+      </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>2350000</v>
+        <v>9970000</v>
       </c>
       <c r="G29">
-        <v>2500000</v>
+        <v>9970000</v>
       </c>
       <c r="H29">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1408,28 +1504,28 @@
     </row>
     <row r="30" spans="1:13">
       <c r="E30" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>2352000</v>
+        <v>10990000</v>
       </c>
       <c r="G30">
-        <v>2702000</v>
+        <v>11490000</v>
       </c>
       <c r="H30">
-        <v>202000</v>
+        <v>1020000</v>
       </c>
       <c r="I30">
-        <v>302000</v>
+        <v>1520000</v>
       </c>
       <c r="J30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1437,65 +1533,83 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>2022</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F31">
-        <v>1607300</v>
+        <v>9197000</v>
       </c>
       <c r="G31">
-        <v>2447300</v>
+        <v>9797000</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L31">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32">
-        <v>1632000</v>
+        <v>9390000</v>
       </c>
       <c r="G32">
-        <v>2432000</v>
+        <v>9690000</v>
+      </c>
+      <c r="H32">
+        <v>193000</v>
+      </c>
+      <c r="I32">
+        <v>-107000</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="E33" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F33">
-        <v>1732000</v>
+        <v>9598000</v>
       </c>
       <c r="G33">
-        <v>2332000</v>
+        <v>9598000</v>
+      </c>
+      <c r="H33">
+        <v>401000</v>
+      </c>
+      <c r="I33">
+        <v>-199000</v>
       </c>
       <c r="J33">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L33">
         <v>2</v>
@@ -1503,240 +1617,181 @@
     </row>
     <row r="34" spans="1:13">
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34">
-        <v>1772000</v>
+        <v>9800000</v>
       </c>
       <c r="G34">
-        <v>2582000</v>
+        <v>9800000</v>
+      </c>
+      <c r="H34">
+        <v>603000</v>
+      </c>
+      <c r="I34">
+        <v>3000</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>10227738</v>
+      </c>
+      <c r="G35">
+        <v>10727738</v>
+      </c>
+      <c r="H35">
+        <v>1030738</v>
+      </c>
+      <c r="I35">
+        <v>930738</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>2023</v>
+      </c>
+      <c r="E36" t="s">
         <v>39</v>
       </c>
-      <c r="F35">
-        <v>2160000</v>
-      </c>
-      <c r="G35">
-        <v>2640000</v>
-      </c>
-      <c r="J35">
-        <v>44</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
       <c r="F36">
-        <v>2282000</v>
+        <v>10049000</v>
       </c>
       <c r="G36">
-        <v>2432000</v>
+        <v>10599000</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>2282000</v>
+        <v>16671000</v>
       </c>
       <c r="G37">
-        <v>2432000</v>
+        <v>17271000</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13">
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>2023</v>
+      </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F38">
-        <v>2360000</v>
+        <v>17700000</v>
       </c>
       <c r="G38">
-        <v>2510000</v>
+        <v>18450000</v>
       </c>
       <c r="J38">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M38">
+        <v>82</v>
+      </c>
+      <c r="L38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>2023</v>
+      </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F39">
-        <v>2530000</v>
+        <v>18400000</v>
       </c>
       <c r="G39">
-        <v>2680000</v>
+        <v>18900000</v>
       </c>
       <c r="J39">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40">
-        <v>2023</v>
-      </c>
-      <c r="E40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40">
-        <v>2850000</v>
-      </c>
-      <c r="G40">
-        <v>3100000</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41">
-        <v>2021</v>
-      </c>
-      <c r="E41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41">
-        <v>1452000</v>
-      </c>
-      <c r="G41">
-        <v>1702000</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42">
-        <v>2021</v>
-      </c>
-      <c r="E42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42">
-        <v>1604000</v>
-      </c>
-      <c r="G42">
-        <v>1854000</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43">
-        <v>1604000</v>
-      </c>
-      <c r="G43">
-        <v>1854000</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L43">
+        <v>83</v>
+      </c>
+      <c r="M39">
         <v>1</v>
       </c>
     </row>
@@ -1780,10 +1835,6 @@
     <hyperlink ref="K37" r:id="rId36"/>
     <hyperlink ref="K38" r:id="rId37"/>
     <hyperlink ref="K39" r:id="rId38"/>
-    <hyperlink ref="K40" r:id="rId39"/>
-    <hyperlink ref="K41" r:id="rId40"/>
-    <hyperlink ref="K42" r:id="rId41"/>
-    <hyperlink ref="K43" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/after_pandas.xlsx
+++ b/after_pandas.xlsx
@@ -15,20 +15,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="176">
   <si>
     <t>Марка, модель</t>
   </si>
   <si>
+    <t>Chery Tiggo 3x I Рестайлинг</t>
+  </si>
+  <si>
+    <t>Chery Tiggo 4 I Рестайлинг</t>
+  </si>
+  <si>
     <t>Chery Tiggo 4 Pro</t>
   </si>
   <si>
+    <t>Chery Tiggo 7 Pro I</t>
+  </si>
+  <si>
     <t>Chery Tiggo 7 Pro Max</t>
   </si>
   <si>
+    <t>Chery Tiggo 8 I</t>
+  </si>
+  <si>
+    <t>Chery Tiggo 8 I Рестайлинг</t>
+  </si>
+  <si>
     <t>Chery Tiggo 8 Pro I</t>
   </si>
   <si>
+    <t>Chery Tiggo 8 Pro I (China Market)</t>
+  </si>
+  <si>
     <t>Chery Tiggo 8 Pro Max</t>
   </si>
   <si>
@@ -38,30 +56,60 @@
     <t>Комплектация</t>
   </si>
   <si>
+    <t>красный</t>
+  </si>
+  <si>
     <t>белый</t>
   </si>
   <si>
-    <t>красный</t>
-  </si>
-  <si>
     <t>серый</t>
   </si>
   <si>
     <t>чёрный</t>
   </si>
   <si>
+    <t>голубой</t>
+  </si>
+  <si>
+    <t>серебристый</t>
+  </si>
+  <si>
+    <t>фиолетовый</t>
+  </si>
+  <si>
+    <t>зелёный</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
     <t>Модификация</t>
   </si>
   <si>
+    <t>внедорожник 5 дв. / 1.5 л  /  116 л.с.  /  бензин / вариатор / передний</t>
+  </si>
+  <si>
     <t>внедорожник 5 дв. / 1.5 л  /  113 л.с.  /  бензин / вариатор / передний</t>
   </si>
   <si>
+    <t>внедорожник 5 дв. / 1.5 л  /  113 л.с.  /  бензин / механика / передний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 1.5 л  /  147 л.с.  /  бензин / робот / передний</t>
+  </si>
+  <si>
     <t>внедорожник 5 дв. / 1.5 л  /  147 л.с.  /  бензин / вариатор / передний</t>
   </si>
   <si>
+    <t>внедорожник 5 дв. / 1.6 л  /  186 л.с.  /  бензин / робот / передний</t>
+  </si>
+  <si>
     <t>внедорожник 5 дв. / 2.0 л  /  170 л.с.  /  бензин / вариатор / передний</t>
   </si>
   <si>
+    <t>внедорожник 5 дв. / 2.0 л  /  254 л.с.  /  бензин / робот / полный</t>
+  </si>
+  <si>
     <t>внедорожник 5 дв. / 2.0 л  /  197 л.с.  /  бензин / робот / полный</t>
   </si>
   <si>
@@ -74,24 +122,132 @@
     <t>Имя дилера</t>
   </si>
   <si>
+    <t>Major Expert Шереметьево</t>
+  </si>
+  <si>
+    <t>МБ-Измайлово</t>
+  </si>
+  <si>
     <t>Major Expert Строгино</t>
   </si>
   <si>
     <t>АвтоСпецЦентр Geely Дубровка</t>
   </si>
   <si>
+    <t>РОЛЬФ Юг | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Северо-Запад | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>ТоргМаш Юг</t>
+  </si>
+  <si>
+    <t>Major Expert Новорижский</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Юго-Восток | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>АЦ Береговой</t>
+  </si>
+  <si>
+    <t>Fresh Auto Chery Москва Левобережный</t>
+  </si>
+  <si>
+    <t>PRIME</t>
+  </si>
+  <si>
     <t>Независимость МКАД 74-й км</t>
   </si>
   <si>
     <t>Редеги</t>
   </si>
   <si>
-    <t>АЦ Береговой</t>
+    <t>Автоганза</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Волгоградский | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Звезда Столицы Каширка | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Химки | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>АвтоСпецЦентр Химки</t>
+  </si>
+  <si>
+    <t>АВТОКЛАСС ЭКСПЕРТ</t>
+  </si>
+  <si>
+    <t>Автомир Nissan на Ярославке</t>
+  </si>
+  <si>
+    <t>FRESH - Автомобильный маркетплейс Москва</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Ясенево</t>
+  </si>
+  <si>
+    <t>КЛЮЧАВТО | Автомобили с пробегом Москва Люберцы</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Алтуфьево | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>Ауди Центр Север</t>
+  </si>
+  <si>
+    <t>FAVORIT MOTORS Юго-Запад | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>АвтоГЕРМЕС Авто с пробегом Дмитровское ш.</t>
+  </si>
+  <si>
+    <t>FAVORIT MOTORS МКАД | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>БорисХоф Внуково</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Восток | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>Car Motors</t>
+  </si>
+  <si>
+    <t>Major Expert Сокольники</t>
+  </si>
+  <si>
+    <t>РОЛЬФ Вешки | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>Чехия Авто Skoda Рязань</t>
   </si>
   <si>
     <t>БорисХоф</t>
   </si>
   <si>
+    <t>Автомир Новопеределкино</t>
+  </si>
+  <si>
+    <t>AVILON АВТОМОБИЛИ С ПРОБЕГОМ Волгоградский</t>
+  </si>
+  <si>
+    <t>FAVORIT MOTORS Восток | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>АВТОХАУС</t>
+  </si>
+  <si>
+    <t>Автодин | Автомобили с пробегом</t>
+  </si>
+  <si>
+    <t>АвтоГрад | Автомобили с пробегом</t>
+  </si>
+  <si>
     <t>China Cars Expert</t>
   </si>
   <si>
@@ -116,34 +272,271 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119318253-fcd646c9/</t>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_3x/1119228897-a6351f29/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4/1119395926-205f89ef/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4/1118973920-61d0f0e4/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4/1119134812-fe71de4f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4/1119223287-2d4fb097/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4/1118891975-16b712fe/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4/1119342335-601b7a70/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4/1119034887-7887e9b3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119296424-1e8bcf31/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119281821-62a4a52e/</t>
   </si>
   <si>
     <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1118930285-3e26f309/</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1118729608-493b1a23/</t>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119085244-0b034cbf/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1117542917-ec233e92/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119170142-cf5a620f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119087554-bf057332/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119099453-f3bc6460/</t>
   </si>
   <si>
     <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119065664-f2307ade/</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119100259-5ac20665/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro_max/1118969362-b44c0252/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro_max/1118930282-dcf06ca2/</t>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_4_pro/1119431706-6f02aea9/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119147404-ff3594be/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1118989397-d5cf1365/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119189693-2f2faa9f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119334930-b313348d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119419555-3ceac4e8/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1118985894-aff17f1c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119411173-ed41bb5a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119079810-7dae87fb/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119070517-e2b71d23/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119374714-025f8451/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1118686352-52b77381/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1118819390-f8cf5a58/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119002195-5f4f0873/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119277807-5010eadd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119280127-185455c3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119198241-adfcde4a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1118920784-8dfcfce6/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1118958329-83d22034/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119129341-1c9dae4f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119098634-cefb0341/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119210382-f527269f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119124603-8beed91c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119217942-94395a0a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1118858585-c00a40c7/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119042793-5933b9b8/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1119084857-1430711f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro/1118710487-4cfa5f2f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro_max/1119411689-ecd7484e/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro_max/1119415273-72da6d00/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro_max/1119388097-84db1f57/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro_max/1119436822-b2c0b75a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro_max/1119146074-283f63b1/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_7_pro_max/1119423752-175d1b1c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8/1119431915-483a8c04/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8/1119161365-c538aa42/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8/1119295915-e8e2e283/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1118970659-34e6cd08/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119223985-38f3731d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119200267-0e67ad70/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1118906029-52bb0b84/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1117328209-cb84dca4/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119414720-8a632387/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1118802399-38787e40/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119329063-c43f184b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119430773-1b02a88c/</t>
   </si>
   <si>
     <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1118258384-f3759b21/</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119271359-2ab33f44/</t>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119249094-5a420fcd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1118931993-3c9abd87/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119376075-d69aa45c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119434056-e21210c9/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1118839959-66e6c78a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119199336-737a2bf8/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro/1119403144-c1617eb5/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1118875075-e73b7580/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119189697-347a1f64/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119125474-6d337d48/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119297080-ae83cfaf/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119396073-dd624817/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119231973-53004dfe/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119052616-bb5b149f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1118832813-733fe98c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119372669-fd05b8f4/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119121913-dfaa0189/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1118951137-f288f824/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119134508-169a3188/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119303850-592420bd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_max/1119273413-f9c7cf2b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_eplus/1119401055-b6301da3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_eplus/1119122162-a15d6cd5/</t>
   </si>
   <si>
     <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_eplus/1119075346-e2e52b10/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/used/sale/chery/tiggo_8_pro_eplus/1119211315-49c8f5fe/</t>
   </si>
   <si>
     <t>В наличии</t>
@@ -494,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,43 +898,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -549,22 +942,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>2150000</v>
+        <v>1865000</v>
       </c>
       <c r="G2">
-        <v>2150000</v>
+        <v>1865000</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -573,36 +966,33 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>2499900</v>
+        <v>1919000</v>
       </c>
       <c r="G3">
-        <v>1839900</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1919000</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -611,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -619,22 +1009,22 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>2245000</v>
+        <v>1680000</v>
       </c>
       <c r="G4">
-        <v>2025000</v>
+        <v>1680000</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -643,30 +1033,36 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>2199000</v>
+        <v>1700000</v>
       </c>
       <c r="G5">
-        <v>1799000</v>
+        <v>1700000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -675,65 +1071,62 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2022</v>
+      </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>2339000</v>
+        <v>1801000</v>
       </c>
       <c r="G6">
-        <v>1939000</v>
+        <v>1681000</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>2023</v>
-      </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>2616000</v>
+        <v>1880000</v>
       </c>
       <c r="G7">
-        <v>2616000</v>
+        <v>1880000</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -741,28 +1134,22 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>2129900</v>
+        <v>1970000</v>
       </c>
       <c r="G8">
-        <v>2129900</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -771,39 +1158,30 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>3050000</v>
+        <v>2265000</v>
       </c>
       <c r="G9">
-        <v>3050000</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2265000</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -812,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -820,77 +1198,2431 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>1930000</v>
+      </c>
+      <c r="G10">
+        <v>1750000</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>1795000</v>
+      </c>
+      <c r="G11">
+        <v>1795000</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>2023</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>2499900</v>
+      </c>
+      <c r="G12">
+        <v>1839900</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>2169000</v>
+      </c>
+      <c r="G13">
+        <v>1899000</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>2300000</v>
+      </c>
+      <c r="G14">
+        <v>2300000</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>1899000</v>
+      </c>
+      <c r="G15">
+        <v>1499000</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>2189000</v>
+      </c>
+      <c r="G16">
+        <v>1969000</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>2399000</v>
+      </c>
+      <c r="G17">
+        <v>2049000</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>2023</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>2249000</v>
+      </c>
+      <c r="G18">
+        <v>1849000</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>2349000</v>
+      </c>
+      <c r="G19">
+        <v>1949000</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>2018000</v>
+      </c>
+      <c r="G20">
+        <v>2018000</v>
+      </c>
+      <c r="H20">
+        <v>-282000</v>
+      </c>
+      <c r="I20">
+        <v>-282000</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21">
+        <v>2200000</v>
+      </c>
+      <c r="G21">
+        <v>1885000</v>
+      </c>
+      <c r="H21">
+        <v>-100000</v>
+      </c>
+      <c r="I21">
+        <v>-415000</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22">
+        <v>2219000</v>
+      </c>
+      <c r="G22">
+        <v>2044000</v>
+      </c>
+      <c r="H22">
+        <v>-81000</v>
+      </c>
+      <c r="I22">
+        <v>-256000</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>2249000</v>
+      </c>
+      <c r="G23">
+        <v>2249000</v>
+      </c>
+      <c r="H23">
+        <v>-51000</v>
+      </c>
+      <c r="I23">
+        <v>-51000</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>2299000</v>
+      </c>
+      <c r="G24">
+        <v>2169000</v>
+      </c>
+      <c r="H24">
+        <v>-1000</v>
+      </c>
+      <c r="I24">
+        <v>-131000</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>2300000</v>
+      </c>
+      <c r="G25">
+        <v>2300000</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>2339000</v>
+      </c>
+      <c r="G26">
+        <v>2339000</v>
+      </c>
+      <c r="H26">
+        <v>39000</v>
+      </c>
+      <c r="I26">
+        <v>39000</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>2350000</v>
+      </c>
+      <c r="G27">
+        <v>2115000</v>
+      </c>
+      <c r="H27">
+        <v>50000</v>
+      </c>
+      <c r="I27">
+        <v>-185000</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>2399000</v>
+      </c>
+      <c r="G28">
+        <v>2224000</v>
+      </c>
+      <c r="H28">
+        <v>99000</v>
+      </c>
+      <c r="I28">
+        <v>-76000</v>
+      </c>
+      <c r="J28">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29">
+        <v>2649000</v>
+      </c>
+      <c r="G29">
+        <v>2649000</v>
+      </c>
+      <c r="H29">
+        <v>349000</v>
+      </c>
+      <c r="I29">
+        <v>349000</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <v>2099000</v>
+      </c>
+      <c r="G30">
+        <v>1749000</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31">
+        <v>1870000</v>
+      </c>
+      <c r="G31">
+        <v>1695000</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>1939000</v>
+      </c>
+      <c r="G32">
+        <v>1764000</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33">
+        <v>2140000</v>
+      </c>
+      <c r="G33">
+        <v>2140000</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34">
+        <v>2172000</v>
+      </c>
+      <c r="G34">
+        <v>2172000</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>2249000</v>
+      </c>
+      <c r="G35">
+        <v>2129000</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>1920000</v>
+      </c>
+      <c r="G36">
+        <v>1745000</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>2067000</v>
+      </c>
+      <c r="G37">
+        <v>1917000</v>
+      </c>
+      <c r="H37">
+        <v>-183000</v>
+      </c>
+      <c r="I37">
+        <v>-333000</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <v>2250000</v>
+      </c>
+      <c r="G38">
+        <v>2250000</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39">
+        <v>2269000</v>
+      </c>
+      <c r="G39">
+        <v>2069000</v>
+      </c>
+      <c r="H39">
+        <v>19000</v>
+      </c>
+      <c r="I39">
+        <v>-181000</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>2321000</v>
+      </c>
+      <c r="G40">
+        <v>2141000</v>
+      </c>
+      <c r="H40">
+        <v>71000</v>
+      </c>
+      <c r="I40">
+        <v>-109000</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41">
+        <v>2400000</v>
+      </c>
+      <c r="G41">
+        <v>2232000</v>
+      </c>
+      <c r="H41">
+        <v>150000</v>
+      </c>
+      <c r="I41">
+        <v>-18000</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>2440000</v>
+      </c>
+      <c r="G42">
+        <v>2210000</v>
+      </c>
+      <c r="H42">
+        <v>190000</v>
+      </c>
+      <c r="I42">
+        <v>-40000</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>2022</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>1984000</v>
+      </c>
+      <c r="G43">
+        <v>1864000</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <v>2091000</v>
+      </c>
+      <c r="G44">
+        <v>1911000</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>6</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45">
+        <v>2250000</v>
+      </c>
+      <c r="G45">
+        <v>2092500</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46">
+        <v>2555000</v>
+      </c>
+      <c r="G46">
+        <v>2555000</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47">
         <v>2023</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <v>2714000</v>
+      </c>
+      <c r="G47">
+        <v>2714000</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>2799000</v>
+      </c>
+      <c r="G48">
+        <v>2644000</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>2023</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <v>2897000</v>
+      </c>
+      <c r="G49">
+        <v>2897000</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>2022</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50">
+        <v>2900000</v>
+      </c>
+      <c r="G50">
+        <v>2900000</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>2022</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <v>2544000</v>
+      </c>
+      <c r="G51">
+        <v>2389000</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>2023</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>2790000</v>
+      </c>
+      <c r="G52">
+        <v>2790000</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>2022</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53">
+        <v>2499000</v>
+      </c>
+      <c r="G53">
+        <v>2369000</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54">
+        <v>2439000</v>
+      </c>
+      <c r="G54">
+        <v>2239000</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55">
+        <v>2248000</v>
+      </c>
+      <c r="G55">
+        <v>2098000</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <v>2022</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56">
+        <v>2575000</v>
+      </c>
+      <c r="G56">
+        <v>2225000</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>2719000</v>
+      </c>
+      <c r="G57">
+        <v>2719000</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58">
+        <v>2900000</v>
+      </c>
+      <c r="G58">
+        <v>2900000</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59">
+        <v>2769000</v>
+      </c>
+      <c r="G59">
+        <v>2419000</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>2022</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60">
+        <v>2659000</v>
+      </c>
+      <c r="G60">
+        <v>2359000</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>2919000</v>
+      </c>
+      <c r="G61">
+        <v>2674000</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62">
+        <v>2022</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62">
+        <v>2700000</v>
+      </c>
+      <c r="G62">
+        <v>2700000</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63">
+        <v>2856000</v>
+      </c>
+      <c r="G63">
+        <v>2856000</v>
+      </c>
+      <c r="H63">
+        <v>156000</v>
+      </c>
+      <c r="I63">
+        <v>156000</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64">
+        <v>2875000</v>
+      </c>
+      <c r="G64">
+        <v>2875000</v>
+      </c>
+      <c r="H64">
+        <v>175000</v>
+      </c>
+      <c r="I64">
+        <v>175000</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65">
+        <v>2023</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65">
+        <v>3050000</v>
+      </c>
+      <c r="G65">
+        <v>3050000</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66">
+        <v>2022</v>
+      </c>
+      <c r="E66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66">
+        <v>2783000</v>
+      </c>
+      <c r="G66">
+        <v>2683000</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67">
+        <v>2657000</v>
+      </c>
+      <c r="G67">
+        <v>2391000</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68">
+        <v>2827000</v>
+      </c>
+      <c r="G68">
+        <v>2627000</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69">
+        <v>2999000</v>
+      </c>
+      <c r="G69">
+        <v>2799000</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>2022</v>
+      </c>
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70">
+        <v>3200000</v>
+      </c>
+      <c r="G70">
+        <v>2912000</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71">
+        <v>3400000</v>
+      </c>
+      <c r="G71">
+        <v>3000000</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="B72" t="s">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>2855900</v>
-      </c>
-      <c r="G10">
-        <v>2855900</v>
-      </c>
-      <c r="H10">
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>2022</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72">
+        <v>3250000</v>
+      </c>
+      <c r="G72">
+        <v>3250000</v>
+      </c>
+      <c r="H72">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+      <c r="E73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73">
+        <v>2995700</v>
+      </c>
+      <c r="G73">
+        <v>2795700</v>
+      </c>
+      <c r="H73">
+        <v>-774300</v>
+      </c>
+      <c r="I73">
+        <v>-974300</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74">
+        <v>3050000</v>
+      </c>
+      <c r="G74">
+        <v>2805000</v>
+      </c>
+      <c r="H74">
+        <v>-720000</v>
+      </c>
+      <c r="I74">
+        <v>-965000</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75">
+        <v>3167000</v>
+      </c>
+      <c r="G75">
+        <v>2922000</v>
+      </c>
+      <c r="H75">
+        <v>-603000</v>
+      </c>
+      <c r="I75">
+        <v>-848000</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="L75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76">
+        <v>3180000</v>
+      </c>
+      <c r="G76">
+        <v>2960000</v>
+      </c>
+      <c r="H76">
+        <v>-590000</v>
+      </c>
+      <c r="I76">
+        <v>-810000</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="E77" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <v>3499900</v>
+      </c>
+      <c r="G77">
+        <v>2999900</v>
+      </c>
+      <c r="H77">
+        <v>-270100</v>
+      </c>
+      <c r="I77">
+        <v>-770100</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78">
+        <v>3770000</v>
+      </c>
+      <c r="G78">
+        <v>3770000</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79">
+        <v>2022</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79">
+        <v>3031000</v>
+      </c>
+      <c r="G79">
+        <v>2776000</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80">
+        <v>2022</v>
+      </c>
+      <c r="E80" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80">
+        <v>3119000</v>
+      </c>
+      <c r="G80">
+        <v>2769000</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81">
+        <v>3197000</v>
+      </c>
+      <c r="G81">
+        <v>2947000</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82">
+        <v>3800000</v>
+      </c>
+      <c r="G82">
+        <v>3650000</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>2022</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83">
+        <v>2950000</v>
+      </c>
+      <c r="G83">
+        <v>2750000</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84">
+        <v>2022</v>
+      </c>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84">
+        <v>3175000</v>
+      </c>
+      <c r="G84">
+        <v>2930000</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="E85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85">
+        <v>3398000</v>
+      </c>
+      <c r="G85">
+        <v>3398000</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="B86" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>2022</v>
+      </c>
+      <c r="E86" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86">
+        <v>3080000</v>
+      </c>
+      <c r="G86">
+        <v>3000000</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87">
+        <v>2022</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87">
+        <v>3275000</v>
+      </c>
+      <c r="G87">
+        <v>3275000</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88">
+        <v>3300000</v>
+      </c>
+      <c r="G88">
+        <v>3300000</v>
+      </c>
+      <c r="H88">
+        <v>25000</v>
+      </c>
+      <c r="I88">
+        <v>25000</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89">
         <v>2023</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11">
+      <c r="E89" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89">
         <v>3290000</v>
       </c>
-      <c r="G11">
+      <c r="G89">
         <v>3290000</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>2022</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90">
+        <v>3220000</v>
+      </c>
+      <c r="G90">
+        <v>3220000</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M90">
         <v>1</v>
       </c>
     </row>
@@ -906,6 +3638,85 @@
     <hyperlink ref="L9" r:id="rId8"/>
     <hyperlink ref="L10" r:id="rId9"/>
     <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
+    <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
+    <hyperlink ref="L31" r:id="rId30"/>
+    <hyperlink ref="L32" r:id="rId31"/>
+    <hyperlink ref="L33" r:id="rId32"/>
+    <hyperlink ref="L34" r:id="rId33"/>
+    <hyperlink ref="L35" r:id="rId34"/>
+    <hyperlink ref="L36" r:id="rId35"/>
+    <hyperlink ref="L37" r:id="rId36"/>
+    <hyperlink ref="L38" r:id="rId37"/>
+    <hyperlink ref="L39" r:id="rId38"/>
+    <hyperlink ref="L40" r:id="rId39"/>
+    <hyperlink ref="L41" r:id="rId40"/>
+    <hyperlink ref="L42" r:id="rId41"/>
+    <hyperlink ref="L43" r:id="rId42"/>
+    <hyperlink ref="L44" r:id="rId43"/>
+    <hyperlink ref="L45" r:id="rId44"/>
+    <hyperlink ref="L46" r:id="rId45"/>
+    <hyperlink ref="L47" r:id="rId46"/>
+    <hyperlink ref="L48" r:id="rId47"/>
+    <hyperlink ref="L49" r:id="rId48"/>
+    <hyperlink ref="L50" r:id="rId49"/>
+    <hyperlink ref="L51" r:id="rId50"/>
+    <hyperlink ref="L52" r:id="rId51"/>
+    <hyperlink ref="L53" r:id="rId52"/>
+    <hyperlink ref="L54" r:id="rId53"/>
+    <hyperlink ref="L55" r:id="rId54"/>
+    <hyperlink ref="L56" r:id="rId55"/>
+    <hyperlink ref="L57" r:id="rId56"/>
+    <hyperlink ref="L58" r:id="rId57"/>
+    <hyperlink ref="L59" r:id="rId58"/>
+    <hyperlink ref="L60" r:id="rId59"/>
+    <hyperlink ref="L61" r:id="rId60"/>
+    <hyperlink ref="L62" r:id="rId61"/>
+    <hyperlink ref="L63" r:id="rId62"/>
+    <hyperlink ref="L64" r:id="rId63"/>
+    <hyperlink ref="L65" r:id="rId64"/>
+    <hyperlink ref="L66" r:id="rId65"/>
+    <hyperlink ref="L67" r:id="rId66"/>
+    <hyperlink ref="L68" r:id="rId67"/>
+    <hyperlink ref="L69" r:id="rId68"/>
+    <hyperlink ref="L70" r:id="rId69"/>
+    <hyperlink ref="L71" r:id="rId70"/>
+    <hyperlink ref="L72" r:id="rId71"/>
+    <hyperlink ref="L73" r:id="rId72"/>
+    <hyperlink ref="L74" r:id="rId73"/>
+    <hyperlink ref="L75" r:id="rId74"/>
+    <hyperlink ref="L76" r:id="rId75"/>
+    <hyperlink ref="L77" r:id="rId76"/>
+    <hyperlink ref="L78" r:id="rId77"/>
+    <hyperlink ref="L79" r:id="rId78"/>
+    <hyperlink ref="L80" r:id="rId79"/>
+    <hyperlink ref="L81" r:id="rId80"/>
+    <hyperlink ref="L82" r:id="rId81"/>
+    <hyperlink ref="L83" r:id="rId82"/>
+    <hyperlink ref="L84" r:id="rId83"/>
+    <hyperlink ref="L85" r:id="rId84"/>
+    <hyperlink ref="L86" r:id="rId85"/>
+    <hyperlink ref="L87" r:id="rId86"/>
+    <hyperlink ref="L88" r:id="rId87"/>
+    <hyperlink ref="L89" r:id="rId88"/>
+    <hyperlink ref="L90" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -913,7 +3724,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -924,43 +3735,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -968,22 +3779,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>2150000</v>
+        <v>1865000</v>
       </c>
       <c r="G2">
-        <v>2150000</v>
+        <v>1865000</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -992,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1000,31 +3811,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>2499900</v>
+        <v>1919000</v>
       </c>
       <c r="G3">
-        <v>1839900</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1919000</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1033,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1041,25 +3846,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>2245000</v>
+        <v>1680000</v>
       </c>
       <c r="G4">
-        <v>2025000</v>
+        <v>1680000</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1068,33 +3873,39 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>2199000</v>
+        <v>1700000</v>
       </c>
       <c r="G5">
-        <v>1799000</v>
+        <v>1700000</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1103,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1111,37 +3922,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>2339000</v>
+        <v>1801000</v>
       </c>
       <c r="G6">
-        <v>1939000</v>
+        <v>1681000</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1149,31 +3960,31 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>2616000</v>
+        <v>1880000</v>
       </c>
       <c r="G7">
-        <v>2616000</v>
+        <v>1880000</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1184,28 +3995,22 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>2129900</v>
+        <v>1970000</v>
       </c>
       <c r="G8">
-        <v>2129900</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1214,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1222,31 +4027,25 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>3050000</v>
+        <v>2265000</v>
       </c>
       <c r="G9">
-        <v>3050000</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2265000</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1255,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1263,31 +4062,25 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F10">
-        <v>2855900</v>
+        <v>1930000</v>
       </c>
       <c r="G10">
-        <v>2855900</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1750000</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1296,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1304,36 +4097,2999 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>1795000</v>
+      </c>
+      <c r="G11">
+        <v>1795000</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>2023</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>2499900</v>
+      </c>
+      <c r="G12">
+        <v>1839900</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>2169000</v>
+      </c>
+      <c r="G13">
+        <v>1899000</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>2022</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>2300000</v>
+      </c>
+      <c r="G14">
+        <v>2300000</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>2022</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>1899000</v>
+      </c>
+      <c r="G15">
+        <v>1499000</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>2189000</v>
+      </c>
+      <c r="G16">
+        <v>1969000</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>2399000</v>
+      </c>
+      <c r="G17">
+        <v>2049000</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>2023</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>2249000</v>
+      </c>
+      <c r="G18">
+        <v>1849000</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>2023</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>2349000</v>
+      </c>
+      <c r="G19">
+        <v>1949000</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>2022</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>2018000</v>
+      </c>
+      <c r="G20">
+        <v>2018000</v>
+      </c>
+      <c r="H20">
+        <v>-282000</v>
+      </c>
+      <c r="I20">
+        <v>-282000</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21">
+        <v>2200000</v>
+      </c>
+      <c r="G21">
+        <v>1885000</v>
+      </c>
+      <c r="H21">
+        <v>-100000</v>
+      </c>
+      <c r="I21">
+        <v>-415000</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22">
+        <v>2219000</v>
+      </c>
+      <c r="G22">
+        <v>2044000</v>
+      </c>
+      <c r="H22">
+        <v>-81000</v>
+      </c>
+      <c r="I22">
+        <v>-256000</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>2022</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>2249000</v>
+      </c>
+      <c r="G23">
+        <v>2249000</v>
+      </c>
+      <c r="H23">
+        <v>-51000</v>
+      </c>
+      <c r="I23">
+        <v>-51000</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>2022</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>2299000</v>
+      </c>
+      <c r="G24">
+        <v>2169000</v>
+      </c>
+      <c r="H24">
+        <v>-1000</v>
+      </c>
+      <c r="I24">
+        <v>-131000</v>
+      </c>
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>2022</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>2300000</v>
+      </c>
+      <c r="G25">
+        <v>2300000</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="L25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>2022</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>2339000</v>
+      </c>
+      <c r="G26">
+        <v>2339000</v>
+      </c>
+      <c r="H26">
+        <v>39000</v>
+      </c>
+      <c r="I26">
+        <v>39000</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>2350000</v>
+      </c>
+      <c r="G27">
+        <v>2115000</v>
+      </c>
+      <c r="H27">
+        <v>50000</v>
+      </c>
+      <c r="I27">
+        <v>-185000</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>2399000</v>
+      </c>
+      <c r="G28">
+        <v>2224000</v>
+      </c>
+      <c r="H28">
+        <v>99000</v>
+      </c>
+      <c r="I28">
+        <v>-76000</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29">
+        <v>2649000</v>
+      </c>
+      <c r="G29">
+        <v>2649000</v>
+      </c>
+      <c r="H29">
+        <v>349000</v>
+      </c>
+      <c r="I29">
+        <v>349000</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <v>2099000</v>
+      </c>
+      <c r="G30">
+        <v>1749000</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31">
+        <v>1870000</v>
+      </c>
+      <c r="G31">
+        <v>1695000</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>1939000</v>
+      </c>
+      <c r="G32">
+        <v>1764000</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33">
+        <v>2140000</v>
+      </c>
+      <c r="G33">
+        <v>2140000</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34">
+        <v>2172000</v>
+      </c>
+      <c r="G34">
+        <v>2172000</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>2249000</v>
+      </c>
+      <c r="G35">
+        <v>2129000</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>1920000</v>
+      </c>
+      <c r="G36">
+        <v>1745000</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>2067000</v>
+      </c>
+      <c r="G37">
+        <v>1917000</v>
+      </c>
+      <c r="H37">
+        <v>-183000</v>
+      </c>
+      <c r="I37">
+        <v>-333000</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>2022</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <v>2250000</v>
+      </c>
+      <c r="G38">
+        <v>2250000</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39">
+        <v>2269000</v>
+      </c>
+      <c r="G39">
+        <v>2069000</v>
+      </c>
+      <c r="H39">
+        <v>19000</v>
+      </c>
+      <c r="I39">
+        <v>-181000</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>2022</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>2321000</v>
+      </c>
+      <c r="G40">
+        <v>2141000</v>
+      </c>
+      <c r="H40">
+        <v>71000</v>
+      </c>
+      <c r="I40">
+        <v>-109000</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>2022</v>
+      </c>
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41">
+        <v>2400000</v>
+      </c>
+      <c r="G41">
+        <v>2232000</v>
+      </c>
+      <c r="H41">
+        <v>150000</v>
+      </c>
+      <c r="I41">
+        <v>-18000</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>2022</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>2440000</v>
+      </c>
+      <c r="G42">
+        <v>2210000</v>
+      </c>
+      <c r="H42">
+        <v>190000</v>
+      </c>
+      <c r="I42">
+        <v>-40000</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>2022</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>1984000</v>
+      </c>
+      <c r="G43">
+        <v>1864000</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <v>2091000</v>
+      </c>
+      <c r="G44">
+        <v>1911000</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>6</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>2022</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45">
+        <v>2250000</v>
+      </c>
+      <c r="G45">
+        <v>2092500</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>2022</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46">
+        <v>2555000</v>
+      </c>
+      <c r="G46">
+        <v>2555000</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47">
         <v>2023</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11">
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <v>2714000</v>
+      </c>
+      <c r="G47">
+        <v>2714000</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>2023</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>2799000</v>
+      </c>
+      <c r="G48">
+        <v>2644000</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>2023</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <v>2897000</v>
+      </c>
+      <c r="G49">
+        <v>2897000</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>2022</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50">
+        <v>2900000</v>
+      </c>
+      <c r="G50">
+        <v>2900000</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>2022</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <v>2544000</v>
+      </c>
+      <c r="G51">
+        <v>2389000</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>2023</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>2790000</v>
+      </c>
+      <c r="G52">
+        <v>2790000</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>2022</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53">
+        <v>2499000</v>
+      </c>
+      <c r="G53">
+        <v>2369000</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54">
+        <v>2439000</v>
+      </c>
+      <c r="G54">
+        <v>2239000</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55">
+        <v>2248000</v>
+      </c>
+      <c r="G55">
+        <v>2098000</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <v>2022</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56">
+        <v>2575000</v>
+      </c>
+      <c r="G56">
+        <v>2225000</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>2022</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>2719000</v>
+      </c>
+      <c r="G57">
+        <v>2719000</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>2022</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58">
+        <v>2900000</v>
+      </c>
+      <c r="G58">
+        <v>2900000</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59">
+        <v>2769000</v>
+      </c>
+      <c r="G59">
+        <v>2419000</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <v>2022</v>
+      </c>
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60">
+        <v>2659000</v>
+      </c>
+      <c r="G60">
+        <v>2359000</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61">
+        <v>2022</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>2919000</v>
+      </c>
+      <c r="G61">
+        <v>2674000</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62">
+        <v>2022</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62">
+        <v>2700000</v>
+      </c>
+      <c r="G62">
+        <v>2700000</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>2022</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63">
+        <v>2856000</v>
+      </c>
+      <c r="G63">
+        <v>2856000</v>
+      </c>
+      <c r="H63">
+        <v>156000</v>
+      </c>
+      <c r="I63">
+        <v>156000</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64">
+        <v>2022</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64">
+        <v>2875000</v>
+      </c>
+      <c r="G64">
+        <v>2875000</v>
+      </c>
+      <c r="H64">
+        <v>175000</v>
+      </c>
+      <c r="I64">
+        <v>175000</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65">
+        <v>2023</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65">
+        <v>3050000</v>
+      </c>
+      <c r="G65">
+        <v>3050000</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66">
+        <v>2022</v>
+      </c>
+      <c r="E66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66">
+        <v>2783000</v>
+      </c>
+      <c r="G66">
+        <v>2683000</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67">
+        <v>2657000</v>
+      </c>
+      <c r="G67">
+        <v>2391000</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68">
+        <v>2827000</v>
+      </c>
+      <c r="G68">
+        <v>2627000</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69">
+        <v>2022</v>
+      </c>
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69">
+        <v>2999000</v>
+      </c>
+      <c r="G69">
+        <v>2799000</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>2022</v>
+      </c>
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70">
+        <v>3200000</v>
+      </c>
+      <c r="G70">
+        <v>2912000</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>2022</v>
+      </c>
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71">
+        <v>3400000</v>
+      </c>
+      <c r="G71">
+        <v>3000000</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>2022</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72">
+        <v>3250000</v>
+      </c>
+      <c r="G72">
+        <v>3250000</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+      <c r="E73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73">
+        <v>2995700</v>
+      </c>
+      <c r="G73">
+        <v>2795700</v>
+      </c>
+      <c r="H73">
+        <v>-774300</v>
+      </c>
+      <c r="I73">
+        <v>-974300</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74">
+        <v>2022</v>
+      </c>
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74">
+        <v>3050000</v>
+      </c>
+      <c r="G74">
+        <v>2805000</v>
+      </c>
+      <c r="H74">
+        <v>-720000</v>
+      </c>
+      <c r="I74">
+        <v>-965000</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <v>2022</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75">
+        <v>3167000</v>
+      </c>
+      <c r="G75">
+        <v>2922000</v>
+      </c>
+      <c r="H75">
+        <v>-603000</v>
+      </c>
+      <c r="I75">
+        <v>-848000</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76">
+        <v>2022</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76">
+        <v>3180000</v>
+      </c>
+      <c r="G76">
+        <v>2960000</v>
+      </c>
+      <c r="H76">
+        <v>-590000</v>
+      </c>
+      <c r="I76">
+        <v>-810000</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77">
+        <v>2022</v>
+      </c>
+      <c r="E77" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <v>3499900</v>
+      </c>
+      <c r="G77">
+        <v>2999900</v>
+      </c>
+      <c r="H77">
+        <v>-270100</v>
+      </c>
+      <c r="I77">
+        <v>-770100</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78">
+        <v>2022</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78">
+        <v>3770000</v>
+      </c>
+      <c r="G78">
+        <v>3770000</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79">
+        <v>2022</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79">
+        <v>3031000</v>
+      </c>
+      <c r="G79">
+        <v>2776000</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80">
+        <v>2022</v>
+      </c>
+      <c r="E80" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80">
+        <v>3119000</v>
+      </c>
+      <c r="G80">
+        <v>2769000</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81">
+        <v>2022</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81">
+        <v>3197000</v>
+      </c>
+      <c r="G81">
+        <v>2947000</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82">
+        <v>2022</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82">
+        <v>3800000</v>
+      </c>
+      <c r="G82">
+        <v>3650000</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>2022</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83">
+        <v>2950000</v>
+      </c>
+      <c r="G83">
+        <v>2750000</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84">
+        <v>2022</v>
+      </c>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84">
+        <v>3175000</v>
+      </c>
+      <c r="G84">
+        <v>2930000</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85">
+        <v>2022</v>
+      </c>
+      <c r="E85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85">
+        <v>3398000</v>
+      </c>
+      <c r="G85">
+        <v>3398000</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>2022</v>
+      </c>
+      <c r="E86" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86">
+        <v>3080000</v>
+      </c>
+      <c r="G86">
+        <v>3000000</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87">
+        <v>2022</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87">
+        <v>3275000</v>
+      </c>
+      <c r="G87">
+        <v>3275000</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>2022</v>
+      </c>
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88">
+        <v>3300000</v>
+      </c>
+      <c r="G88">
+        <v>3300000</v>
+      </c>
+      <c r="H88">
+        <v>25000</v>
+      </c>
+      <c r="I88">
+        <v>25000</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89">
+        <v>2023</v>
+      </c>
+      <c r="E89" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89">
         <v>3290000</v>
       </c>
-      <c r="G11">
+      <c r="G89">
         <v>3290000</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>2022</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90">
+        <v>3220000</v>
+      </c>
+      <c r="G90">
+        <v>3220000</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M90">
         <v>1</v>
       </c>
     </row>
@@ -1349,6 +7105,85 @@
     <hyperlink ref="L9" r:id="rId8"/>
     <hyperlink ref="L10" r:id="rId9"/>
     <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
+    <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
+    <hyperlink ref="L31" r:id="rId30"/>
+    <hyperlink ref="L32" r:id="rId31"/>
+    <hyperlink ref="L33" r:id="rId32"/>
+    <hyperlink ref="L34" r:id="rId33"/>
+    <hyperlink ref="L35" r:id="rId34"/>
+    <hyperlink ref="L36" r:id="rId35"/>
+    <hyperlink ref="L37" r:id="rId36"/>
+    <hyperlink ref="L38" r:id="rId37"/>
+    <hyperlink ref="L39" r:id="rId38"/>
+    <hyperlink ref="L40" r:id="rId39"/>
+    <hyperlink ref="L41" r:id="rId40"/>
+    <hyperlink ref="L42" r:id="rId41"/>
+    <hyperlink ref="L43" r:id="rId42"/>
+    <hyperlink ref="L44" r:id="rId43"/>
+    <hyperlink ref="L45" r:id="rId44"/>
+    <hyperlink ref="L46" r:id="rId45"/>
+    <hyperlink ref="L47" r:id="rId46"/>
+    <hyperlink ref="L48" r:id="rId47"/>
+    <hyperlink ref="L49" r:id="rId48"/>
+    <hyperlink ref="L50" r:id="rId49"/>
+    <hyperlink ref="L51" r:id="rId50"/>
+    <hyperlink ref="L52" r:id="rId51"/>
+    <hyperlink ref="L53" r:id="rId52"/>
+    <hyperlink ref="L54" r:id="rId53"/>
+    <hyperlink ref="L55" r:id="rId54"/>
+    <hyperlink ref="L56" r:id="rId55"/>
+    <hyperlink ref="L57" r:id="rId56"/>
+    <hyperlink ref="L58" r:id="rId57"/>
+    <hyperlink ref="L59" r:id="rId58"/>
+    <hyperlink ref="L60" r:id="rId59"/>
+    <hyperlink ref="L61" r:id="rId60"/>
+    <hyperlink ref="L62" r:id="rId61"/>
+    <hyperlink ref="L63" r:id="rId62"/>
+    <hyperlink ref="L64" r:id="rId63"/>
+    <hyperlink ref="L65" r:id="rId64"/>
+    <hyperlink ref="L66" r:id="rId65"/>
+    <hyperlink ref="L67" r:id="rId66"/>
+    <hyperlink ref="L68" r:id="rId67"/>
+    <hyperlink ref="L69" r:id="rId68"/>
+    <hyperlink ref="L70" r:id="rId69"/>
+    <hyperlink ref="L71" r:id="rId70"/>
+    <hyperlink ref="L72" r:id="rId71"/>
+    <hyperlink ref="L73" r:id="rId72"/>
+    <hyperlink ref="L74" r:id="rId73"/>
+    <hyperlink ref="L75" r:id="rId74"/>
+    <hyperlink ref="L76" r:id="rId75"/>
+    <hyperlink ref="L77" r:id="rId76"/>
+    <hyperlink ref="L78" r:id="rId77"/>
+    <hyperlink ref="L79" r:id="rId78"/>
+    <hyperlink ref="L80" r:id="rId79"/>
+    <hyperlink ref="L81" r:id="rId80"/>
+    <hyperlink ref="L82" r:id="rId81"/>
+    <hyperlink ref="L83" r:id="rId82"/>
+    <hyperlink ref="L84" r:id="rId83"/>
+    <hyperlink ref="L85" r:id="rId84"/>
+    <hyperlink ref="L86" r:id="rId85"/>
+    <hyperlink ref="L87" r:id="rId86"/>
+    <hyperlink ref="L88" r:id="rId87"/>
+    <hyperlink ref="L89" r:id="rId88"/>
+    <hyperlink ref="L90" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/after_pandas.xlsx
+++ b/after_pandas.xlsx
@@ -15,69 +15,348 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="250">
   <si>
     <t>Марка, модель</t>
   </si>
   <si>
-    <t>Jeep Gladiator II (JT)</t>
-  </si>
-  <si>
-    <t>Jeep Grand Cherokee 4xe V (WL)</t>
-  </si>
-  <si>
-    <t>Jeep Grand Cherokee L V (WL)</t>
-  </si>
-  <si>
-    <t>Jeep Grand Cherokee V (WL)</t>
-  </si>
-  <si>
-    <t>Jeep Wrangler IV (JL)</t>
+    <t>Audi A3 35 TFSI IV (8Y)</t>
+  </si>
+  <si>
+    <t>Audi A3 Sportback 35 TFSI IV (8Y)</t>
+  </si>
+  <si>
+    <t>Audi A4 35 TFSI V (B9) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi A4 45 TFSI V (B9) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi A5 Sportback 40 TDI II (F5) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi A5 Sportback 40 TFSI II (F5) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi A5 Sportback 45 TFSI II (F5) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi A6 40 TDI V (C8)</t>
+  </si>
+  <si>
+    <t>Audi A6 40 TFSI V (C8)</t>
+  </si>
+  <si>
+    <t>Audi A6 45 TFSI Long V (C8) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi A6 45 TFSI V (C8)</t>
+  </si>
+  <si>
+    <t>Audi A7 45 TFSI II (4K)</t>
+  </si>
+  <si>
+    <t>Audi A8 Long 55 TFSI IV (D5)</t>
+  </si>
+  <si>
+    <t>Audi A8 Long 55 TFSI IV (D5) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q3 35 TFSI II (F3)</t>
+  </si>
+  <si>
+    <t>Audi Q5 40 TDI II (FY) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q5 45 TFSI II (FY) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q5 L 40 TFSI II (FY) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q5 Sportback 40 TDI I (FY)</t>
+  </si>
+  <si>
+    <t>Audi Q5 Sportback 40 TFSI I (FY)</t>
+  </si>
+  <si>
+    <t>Audi Q5 Sportback 45 TFSI I (FY)</t>
+  </si>
+  <si>
+    <t>Audi Q5 e-tron 40</t>
+  </si>
+  <si>
+    <t>Audi Q5 e-tron 50</t>
+  </si>
+  <si>
+    <t>Audi Q6 45 TFSI</t>
+  </si>
+  <si>
+    <t>Audi Q6 50 TFSI</t>
+  </si>
+  <si>
+    <t>Audi Q7 45 TDI II (4M) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q7 45 TFSI II (4M) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q7 50 TDI II (4M) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q7 55 TFSI II (4M) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q8 45 TDI I (4M)</t>
+  </si>
+  <si>
+    <t>Audi Q8 50 TDI I (4M)</t>
+  </si>
+  <si>
+    <t>Audi Q8 50 TDI I (4M) Рестайлинг</t>
+  </si>
+  <si>
+    <t>Audi Q8 55 TFSI I (4M)</t>
+  </si>
+  <si>
+    <t>Audi RS 6 IV (C8)</t>
+  </si>
+  <si>
+    <t>Audi RS 7 II (4K)</t>
+  </si>
+  <si>
+    <t>Audi RS Q8 I</t>
+  </si>
+  <si>
+    <t>Audi e-tron 55 I</t>
+  </si>
+  <si>
+    <t>Audi e-tron Sportback 55 I</t>
   </si>
   <si>
     <t>Комплектация</t>
   </si>
   <si>
+    <t>Advance 35 TFSI tiptronic</t>
+  </si>
+  <si>
+    <t>35 TFSI S tronic</t>
+  </si>
+  <si>
+    <t>35 TFSI S tronic Edition One</t>
+  </si>
+  <si>
+    <t>Advance 35 TFSI S tronic</t>
+  </si>
+  <si>
+    <t>Sport 35 TFSI S tronic</t>
+  </si>
+  <si>
+    <t>Design 45 TFSI quattro S tronic</t>
+  </si>
+  <si>
+    <t>40 TDI quattro S tronic</t>
+  </si>
+  <si>
+    <t>Design 40 TFSI S tronic</t>
+  </si>
+  <si>
+    <t>40 TDI quattro S Tronic</t>
+  </si>
+  <si>
+    <t>40 TFSI S tronic</t>
+  </si>
+  <si>
+    <t>45 TFSI quattro S tronic</t>
+  </si>
+  <si>
+    <t>Advance 45 TFSI quattro S tronic</t>
+  </si>
+  <si>
+    <t>Sport 45 TFSI quattro S tronic</t>
+  </si>
+  <si>
+    <t>Business 55 TFSI quattro tiptronic</t>
+  </si>
+  <si>
+    <t>55 TFSI quattro tiptronic</t>
+  </si>
+  <si>
+    <t>35 TFSI Aggressive Dynamic</t>
+  </si>
+  <si>
+    <t>Индивидуальная</t>
+  </si>
+  <si>
+    <t>40 TFSI quattro Dynamic Edition</t>
+  </si>
+  <si>
+    <t>40 TFSI quattro Luxury Edition</t>
+  </si>
+  <si>
+    <t>40 TDI quattro</t>
+  </si>
+  <si>
+    <t>45 TFSI quattro</t>
+  </si>
+  <si>
+    <t>S line 45 TFSI quattro</t>
+  </si>
+  <si>
     <t>Импорт</t>
   </si>
   <si>
-    <t>Summit</t>
-  </si>
-  <si>
-    <t>Limited</t>
-  </si>
-  <si>
-    <t>Overland</t>
-  </si>
-  <si>
-    <t>Summit Reserve</t>
-  </si>
-  <si>
-    <t>Altitude</t>
-  </si>
-  <si>
-    <t>Rubicon</t>
+    <t>50 TFSI quattro</t>
+  </si>
+  <si>
+    <t>45 TDI quattro tiptronic</t>
+  </si>
+  <si>
+    <t>45 TDI quattro tiptronic (7 seat)</t>
+  </si>
+  <si>
+    <t>Sport 45 TDI quattro tiptronic</t>
+  </si>
+  <si>
+    <t>45 TFSI quattro tiptronic</t>
+  </si>
+  <si>
+    <t>50 TDI quattro tiptronic</t>
+  </si>
+  <si>
+    <t>45 TDI</t>
+  </si>
+  <si>
+    <t>Design 45 TDI</t>
+  </si>
+  <si>
+    <t>Sport 45 TDI</t>
+  </si>
+  <si>
+    <t>50 TDI</t>
+  </si>
+  <si>
+    <t>55 TFSI</t>
+  </si>
+  <si>
+    <t>Advance 55 TFSI</t>
+  </si>
+  <si>
+    <t>TFSI quattro</t>
+  </si>
+  <si>
+    <t>Sport quattro</t>
+  </si>
+  <si>
+    <t>Quattro</t>
+  </si>
+  <si>
+    <t>Design 55 quattro</t>
+  </si>
+  <si>
+    <t>55 quattro</t>
   </si>
   <si>
     <t>Модификация</t>
   </si>
   <si>
-    <t>пикап двойная кабина / 3.6 л / 285 л.с. / бензин / автомат / полный</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 2.0 л / 380 л.с. / гибрид / автомат / полный</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 3.6 л / 294 л.с. / бензин / автомат / полный</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 3.6 л / 297 л.с. / бензин / автомат / полный</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 2.0 л / 272 л.с. / бензин / автомат / полный</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 6.4 л / 470 л.с. / бензин / автомат / полный</t>
+    <t>седан / 1.4 л / 150 л.с. / бензин / автомат / передний</t>
+  </si>
+  <si>
+    <t>хэтчбек 5 дв. / 1.4 л / 150 л.с. / бензин / автомат / передний</t>
+  </si>
+  <si>
+    <t>универсал 5 дв. / 2.0 л / 150 л.с. / бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>седан / 2.0 л / 150 л.с. / бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>универсал 5 дв. / 2.0 л / 249 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>лифтбек / 2.0 л / 204 л.с. / дизель / робот / полный</t>
+  </si>
+  <si>
+    <t>лифтбек / 2.0 л / 190 л.с. / бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>лифтбек / 2.0 л / 249 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>седан / 2.0 л / 204 л.с. / дизель / робот / полный</t>
+  </si>
+  <si>
+    <t>седан / 2.0 л / 190 л.с. / бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>седан / 2.0 л / 245 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>лифтбек / 2.0 л / 245 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>седан / 3.0 л / 340 л.с. / бензин / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 1.4 л / 150 л.с. / бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 1.5 л / 150 л.с. / бензин / робот / передний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.0 л / 204 л.с. / дизель / робот / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.0 л / 249 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.0 л / 190 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.0 л / 204 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.0 л / 265 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 204 л.с. / 150 квт / электро / заряд на 560 км / задний</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 306 л.с. / 225 квт / электро / заряд на 520 км / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.5 л / 299 л.с. / бензин / робот / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 3.0 л / 249 л.с. / дизель / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 3.0 л / 231 л.с. / дизель / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 2.0 л / 252 л.с. / бензин / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 3.0 л / 286 л.с. / дизель / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 3.0 л / 340 л.с. / бензин / автомат / полный</t>
+  </si>
+  <si>
+    <t>универсал 5 дв. / 4.0 л / 600 л.с. / бензин / автомат / полный</t>
+  </si>
+  <si>
+    <t>лифтбек / 4.0 л / 600 л.с. / бензин / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 4.0 л / 600 л.с. / бензин / автомат / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 408 л.с. / 300 квт / электро / заряд на 436 км / полный</t>
+  </si>
+  <si>
+    <t>внедорожник 5 дв. / 408 л.с. / 300 квт / электро / заряд на 446 км / полный</t>
   </si>
   <si>
     <t>Год</t>
@@ -86,16 +365,55 @@
     <t>Имя дилера</t>
   </si>
   <si>
-    <t>РОЛЬФ Центр Мультибренд</t>
-  </si>
-  <si>
-    <t>РОЛЬФ Алтуфьево Мультибренд Премиум</t>
-  </si>
-  <si>
-    <t>АВИЛОН Премиум</t>
-  </si>
-  <si>
-    <t>Каскад-Авто</t>
+    <t>Ауди Центр Север</t>
+  </si>
+  <si>
+    <t>Ауди Центр Сити</t>
+  </si>
+  <si>
+    <t>КЛЮЧАВТО Мультибренд Люберцы</t>
+  </si>
+  <si>
+    <t>Автодом Ауди Таганка</t>
+  </si>
+  <si>
+    <t>Ауди АВИЛОН</t>
+  </si>
+  <si>
+    <t>Дилерский центр Алтуфьево</t>
+  </si>
+  <si>
+    <t>Ауди Центр Тула</t>
+  </si>
+  <si>
+    <t>Ауди Центр Рязань</t>
+  </si>
+  <si>
+    <t>КЛЮЧАВТО Мультибренд Дмитровка</t>
+  </si>
+  <si>
+    <t>Ауди Центр Запад</t>
+  </si>
+  <si>
+    <t>Автодом Ауди Центр Восток</t>
+  </si>
+  <si>
+    <t>FRESH - Автомобильный маркетплейс Москва</t>
+  </si>
+  <si>
+    <t>АЦ Ленинский</t>
+  </si>
+  <si>
+    <t>Ирбис Север</t>
+  </si>
+  <si>
+    <t>JETCAR</t>
+  </si>
+  <si>
+    <t>Million Miles</t>
+  </si>
+  <si>
+    <t>Frank Auto</t>
   </si>
   <si>
     <t>Цена со скидками</t>
@@ -119,82 +437,328 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/jeep/gladiator/21698322/23570601/1121019907-9566a85c/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/gladiator/21698322/23570601/1122033889-c587c1f4/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/gladiator/21698322/23570601/1122033897-6e491343/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23302090/23663647/1122033531-a24422b3/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23329942/1122033537-3afa16d4/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23329942/1121493902-85b4e2d4/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23329942/1122033522-b0074787/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330072/1121493900-0e51cf97/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330072/1122033510-064b3c06/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330090/1121489070-e16ccb41/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330090/1122033895-07a6fe28/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330090/1121489069-9aef295b/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23669171/1121987329-4cb7f7c4/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1122033519-99cb3b1e/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1120704536-88a87354/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1121950712-6dfa1d42/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23329942/1119898092-ad870d47/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1120812354-4d2be081/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1122033528-c30875c9/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1121939577-6645adf9/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330090/1122033520-0defee7b/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1122033885-c0be020b/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1120914669-bf48e515/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1122033512-2b82f826/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1121078460-64fa960f/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/wrangler/22879094/23538874/1121951620-a01a19d4/</t>
+    <t>https://auto.ru/cars/new/group/audi/a3/22848424/22870699/1121513550-b5678309/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a3/22848425/22870691/1121513563-4ddaa669/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a4/21596395/22529917/1121402967-c49864d2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a4/21596327/22492727/1121274261-e996b097/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a4/21596395/22530008/1121402968-78e56d1a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a4/21596327/22528401/1121270754-6ba8926c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a4/21596327/22528401/1121807824-7a717122/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a4/21596397/22541331/1121807795-0bc4ac3b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a5/22537722/23857409/1121800393-96285263/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a5/21745793/22538715/1121463655-320bb96a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a5/22540363/22538738/1121960352-311a1e6d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/21600490/23504717/1119415245-ca5519de/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/21600490/23504717/1121803925-a9231411/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/21791690/21793156/1121735690-3b72de18/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/23605918/23605963/1121724481-d15a9bb8/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/21593798/21594143/1121255173-74c22d63/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/21593798/21594234/1121364665-dcb4d313/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/21593798/21594234/1120855711-8e7873dd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/21593798/21594234/1121609090-eb938dc8/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a6/21593798/21594731/1121980734-1530700d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a7/21600234/21649551/1121808668-64b12f52/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a8/21040210/21668494/1119488493-86e63e06/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/a8/23141506/23336402/1118570396-171a88dd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q3/21666861/23712288/1122073686-4c538818/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q3/21666861/23712288/1120753602-556876e3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q3/21666861/0/1120876600-5a76075c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q3/21447994/0/1121958974-6af0f83a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22408669/23393974/1119911730-4586675c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22408669/23393974/1120376289-1c220abb/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22408669/23393974/1122093937-6de78085/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22803801/22804040/1121040386-773abfcf/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22803801/22804040/1120871024-8f782b36/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22803801/22804230/1121273817-b294621c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22803801/22804230/1120845683-e7e20de2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22803801/22804382/1121039336-4f2483d5/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22803801/22804382/1121679373-b2bb20c3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22803801/22804382/1121763812-961fd0d6/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/22803801/22804430/1120871034-e9d2da0b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/23416560/23417021/1120900669-43ae9520/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/23416560/23417059/1121477045-8e3f3a23/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/23416560/23417059/1121235586-71214a6d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5/23416560/0/1121628525-bec05135/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22696520/23387460/1122072288-f5e6bcd3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22696520/23387460/1121829541-c6f7614b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22696520/23387460/1122000150-3b1b91c6/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22696520/23387460/1122110751-b1746ef3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22696520/23387460/1121807718-145b7661/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22696520/23387460/1122054403-a92403fb/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/23527840/0/1121051442-25a3bec0/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22697498/23492162/1120477444-4e8e2c14/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22881027/23566850/1120871028-e4c6c40c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_sportback/22881027/23566850/1121856157-875cbbef/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_e_tron/23368171/23535250/1121776910-e70df2e0/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_e_tron/23368205/23535250/1122190283-5c7f1817/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q5_e_tron/23368205/23535250/1120753658-0c6e804a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407915/23464063/1120753632-58050aff/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407915/23464063/1120753600-2225933c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407915/23464063/1121514087-b4c92401/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407915/23464063/1122098617-62381acf/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407915/23464063/1121236741-30fc8e35/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407915/23464063/1120580473-05b6e54c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407947/23564388/1120753595-c745cee4/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407947/23564388/1122009269-4e1d4ae1/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407947/23564388/1121236742-dea7020c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q6/23407947/23564388/1121465258-ee4bd46b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21905005/21905403/1122208042-7adf0c43/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21905005/21905403/1122238333-5e450fec/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21905005/21905403/1121514378-ef27f161/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21647042/23520937/1119977880-3243264c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21905005/21905705/1121980773-e2295bc8/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/23296334/23854430/1121779843-c8809d5a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21647076/23476602/1121239896-da8d9d27/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21647076/23476602/1121890936-63ceb7f7/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21647076/23476602/1121004999-0cfb623d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21647076/23476602/1121269454-47ca59ce/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21647076/23476602/1121514225-f591c6fa/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21647076/23476602/1120298273-ce982e63/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21647076/23476602/1121803926-2f845672/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21734754/23405209/1122031104-2ca0f2f1/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q7/21734754/23405209/1121774461-dce12391/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21519874/23508648/1120710371-424af1e2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21519874/23508648/1121391633-15c8aa79/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21519841/21520421/1120327756-5f576d8f/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21519841/21520421/1122180908-d82e027b/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21519841/21520421/1120929363-a4fce2cd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21519841/21520509/1120327748-825ff3c4/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21519841/21520498/1121425957-04e7efe6/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21519841/21520498/1121865314-3acf8e46/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21315438/23442324/1121570742-bb2e61ef/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21315438/23442324/1121980792-cf0b069a/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21315438/23442324/1122180909-0e3a5ee5/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21315438/23442324/1120091678-9e43e4c1/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21315438/23442324/1120261538-70cb1aba/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21315438/23442324/1121477046-560a28dc/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21315438/23442324/1121186153-4cb536d5/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/23761809/23794295/1121972992-8c96fcfd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/23761809/23794295/1121807352-6b4eb689/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/23761809/23794295/1122083364-f02f2070/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21425075/21425160/1121180017-8eef7148/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21425075/21425160/1120698935-62407940/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/q8/21425075/21425310/1122041358-c59ec9ca/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/rs6/21716190/22758824/1121767659-bf254ebf/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/rs7/21718573/22762542/1122196818-57f083c1/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/rs_q8/21757388/22730098/1118319095-a66f6d9d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/rs_q8/21757388/22730098/1121834335-af466e6d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/rs_q8/21757388/22730098/1122019446-b38d8f5c/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/e_tron/22291114/22291462/1117245900-5e7a3df3/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/audi/e_tron_sportback/21721552/22760308/1115764614-943362de/</t>
   </si>
   <si>
     <t>В наличии</t>
@@ -545,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,43 +1120,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -600,22 +1164,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F2">
-        <v>7750000</v>
+        <v>4300000</v>
       </c>
       <c r="G2">
-        <v>9100000</v>
+        <v>4800000</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -624,53 +1188,68 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
+        <v>140</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F3">
-        <v>7750000</v>
+        <v>4400000</v>
       </c>
       <c r="G3">
-        <v>9100000</v>
+        <v>4900000</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F4">
-        <v>7750000</v>
+        <v>4722097</v>
       </c>
       <c r="G4">
-        <v>9100000</v>
+        <v>5082097</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -679,33 +1258,30 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F5">
-        <v>7000000</v>
+        <v>5100000</v>
       </c>
       <c r="G5">
-        <v>8000000</v>
+        <v>5600000</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -714,120 +1290,120 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>2022</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>7750000</v>
+        <v>5012614</v>
       </c>
       <c r="G6">
-        <v>9100000</v>
+        <v>5222614</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F7">
-        <v>7940000</v>
+        <v>4740000</v>
       </c>
       <c r="G7">
-        <v>9290000</v>
+        <v>5440000</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>2023</v>
-      </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F8">
-        <v>9900000</v>
+        <v>5200000</v>
       </c>
       <c r="G8">
-        <v>10900000</v>
+        <v>5900000</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F9">
-        <v>10150000</v>
+        <v>5750000</v>
       </c>
       <c r="G9">
-        <v>11500000</v>
+        <v>6450000</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -836,317 +1412,362 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
+      </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F10">
-        <v>10250000</v>
+        <v>8850000</v>
       </c>
       <c r="G10">
-        <v>11500000</v>
+        <v>9690000</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11">
+        <v>6450776</v>
+      </c>
+      <c r="G11">
+        <v>6510776</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12">
+        <v>6300000</v>
+      </c>
+      <c r="G12">
+        <v>6900000</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>2022</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13">
+        <v>8300000</v>
+      </c>
+      <c r="G13">
+        <v>9000000</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>2023</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14">
+        <v>9100000</v>
+      </c>
+      <c r="G14">
+        <v>9890000</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10">
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" t="s">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15">
+        <v>7200000</v>
+      </c>
+      <c r="G15">
+        <v>7840000</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16">
+        <v>8879510</v>
+      </c>
+      <c r="G16">
+        <v>9456510</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
         <v>2022</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>11350000</v>
-      </c>
-      <c r="G11">
-        <v>12700000</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <v>11450000</v>
-      </c>
-      <c r="G12">
-        <v>12700000</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>2023</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>11350000</v>
-      </c>
-      <c r="G13">
-        <v>12700000</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>2022</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>9316680</v>
-      </c>
-      <c r="G14">
-        <v>9816680</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>7000000</v>
-      </c>
-      <c r="G15">
-        <v>8350000</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16">
-        <v>7050000</v>
-      </c>
-      <c r="G16">
-        <v>8400000</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
       <c r="E17" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="F17">
-        <v>8689900</v>
+        <v>6035000</v>
       </c>
       <c r="G17">
-        <v>8689900</v>
+        <v>6785000</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="B18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>2022</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F18">
-        <v>7738999</v>
+        <v>6284900</v>
       </c>
       <c r="G18">
-        <v>7738999</v>
+        <v>7029900</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>2022</v>
-      </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F19">
-        <v>8900000</v>
+        <v>6400000</v>
       </c>
       <c r="G19">
-        <v>10250000</v>
+        <v>7100000</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="E20" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="F20">
-        <v>9350000</v>
+        <v>7000000</v>
       </c>
       <c r="G20">
-        <v>10700000</v>
+        <v>7800000</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -1154,54 +1775,57 @@
     </row>
     <row r="21" spans="1:13">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D21">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F21">
-        <v>10150000</v>
+        <v>7000000</v>
       </c>
       <c r="G21">
-        <v>11500000</v>
+        <v>7700000</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>2023</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>11450000</v>
+        <v>9324700</v>
       </c>
       <c r="G22">
-        <v>12700000</v>
+        <v>9991700</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1210,111 +1834,126 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D23">
+        <v>2021</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23">
+        <v>15650000</v>
+      </c>
+      <c r="G23">
+        <v>15650000</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
         <v>2022</v>
       </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23">
-        <v>7250000</v>
-      </c>
-      <c r="G23">
-        <v>8600000</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24">
+        <v>13500000</v>
+      </c>
+      <c r="G24">
+        <v>13500000</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="M23">
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25">
+        <v>2023</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25">
+        <v>4240000</v>
+      </c>
+      <c r="G25">
+        <v>4880000</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>7350000</v>
-      </c>
-      <c r="G24">
-        <v>8700000</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25">
-        <v>2023</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25">
-        <v>7350000</v>
-      </c>
-      <c r="G25">
-        <v>8700000</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>21</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="E26" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F26">
-        <v>7750000</v>
+        <v>4408695</v>
       </c>
       <c r="G26">
-        <v>9100000</v>
+        <v>4953695</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1323,42 +1962,2429 @@
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27">
+        <v>2023</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27">
+        <v>4636000</v>
+      </c>
+      <c r="G27">
+        <v>4986000</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <v>2023</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28">
+        <v>4200000</v>
+      </c>
+      <c r="G28">
+        <v>4800000</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29">
+        <v>7007650</v>
+      </c>
+      <c r="G29">
+        <v>8007650</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30">
+        <v>7870000</v>
+      </c>
+      <c r="G30">
+        <v>8170000</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>2023</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31">
+        <v>9190000</v>
+      </c>
+      <c r="G31">
+        <v>10080000</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32">
+        <v>7050000</v>
+      </c>
+      <c r="G32">
+        <v>7800000</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33">
+        <v>7172990</v>
+      </c>
+      <c r="G33">
+        <v>7532990</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34">
+        <v>7100000</v>
+      </c>
+      <c r="G34">
+        <v>7800000</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>7472990</v>
+      </c>
+      <c r="G35">
+        <v>7532990</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36">
+        <v>7450000</v>
+      </c>
+      <c r="G36">
+        <v>8200000</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37">
+        <v>7913853</v>
+      </c>
+      <c r="G37">
+        <v>7973853</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>2023</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38">
+        <v>7590000</v>
+      </c>
+      <c r="G38">
+        <v>8280000</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39">
+        <v>7833166</v>
+      </c>
+      <c r="G39">
+        <v>8193166</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>2023</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40">
+        <v>7400000</v>
+      </c>
+      <c r="G40">
+        <v>8100000</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41">
+        <v>2023</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41">
+        <v>7660885</v>
+      </c>
+      <c r="G41">
+        <v>8298885</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42">
+        <v>7839460</v>
+      </c>
+      <c r="G42">
+        <v>8239460</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>2023</v>
+      </c>
+      <c r="E43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43">
+        <v>8300000</v>
+      </c>
+      <c r="G43">
+        <v>8300000</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44">
+        <v>7200000</v>
+      </c>
+      <c r="G44">
+        <v>7800000</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45">
+        <v>7380000</v>
+      </c>
+      <c r="G45">
+        <v>7380000</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46">
+        <v>7500000</v>
+      </c>
+      <c r="G46">
+        <v>7500000</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47">
+        <v>8400000</v>
+      </c>
+      <c r="G47">
+        <v>9100000</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>2023</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48">
+        <v>8000000</v>
+      </c>
+      <c r="G48">
+        <v>8600000</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49">
+        <v>8800000</v>
+      </c>
+      <c r="G49">
+        <v>8800000</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50">
+        <v>2023</v>
+      </c>
+      <c r="E50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50">
+        <v>7150000</v>
+      </c>
+      <c r="G50">
+        <v>7900000</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>2023</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51">
+        <v>7450000</v>
+      </c>
+      <c r="G51">
+        <v>8200000</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52">
+        <v>2022</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52">
+        <v>8807730</v>
+      </c>
+      <c r="G52">
+        <v>8867730</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53">
+        <v>2023</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53">
+        <v>7800000</v>
+      </c>
+      <c r="G53">
+        <v>8590000</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54">
+        <v>4458000</v>
+      </c>
+      <c r="G54">
+        <v>5208000</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55">
+        <v>5999000</v>
+      </c>
+      <c r="G55">
+        <v>5999000</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56">
+        <v>7750640</v>
+      </c>
+      <c r="G56">
+        <v>8404640</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>2022</v>
+      </c>
+      <c r="E57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57">
+        <v>8882120</v>
+      </c>
+      <c r="G57">
+        <v>9631120</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>2023</v>
+      </c>
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58">
+        <v>8891020</v>
+      </c>
+      <c r="G58">
+        <v>9792020</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>33</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59">
+        <v>8900000</v>
+      </c>
+      <c r="G59">
+        <v>9700000</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60">
+        <v>8990000</v>
+      </c>
+      <c r="G60">
+        <v>9890000</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61">
+        <v>9802582</v>
+      </c>
+      <c r="G61">
+        <v>10202582</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>47</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62">
+        <v>9950000</v>
+      </c>
+      <c r="G62">
+        <v>9950000</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>45</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63">
+        <v>2023</v>
+      </c>
+      <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63">
+        <v>10172120</v>
+      </c>
+      <c r="G63">
+        <v>10692120</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>2023</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="L63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="E64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64">
+        <v>11780000</v>
+      </c>
+      <c r="G64">
+        <v>12530000</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65">
+        <v>12057020</v>
+      </c>
+      <c r="G65">
+        <v>12457020</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>14</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="E66" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66">
+        <v>12800000</v>
+      </c>
+      <c r="G66">
+        <v>12800000</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>13</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+      <c r="E67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67">
+        <v>10005000</v>
+      </c>
+      <c r="G67">
+        <v>10005000</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>19</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="E68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68">
+        <v>10990000</v>
+      </c>
+      <c r="G68">
+        <v>10990000</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69">
+        <v>11289000</v>
+      </c>
+      <c r="G69">
+        <v>11989000</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>8</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70">
+        <v>2023</v>
+      </c>
+      <c r="E70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70">
+        <v>10290000</v>
+      </c>
+      <c r="G70">
+        <v>10290000</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71">
+        <v>2022</v>
+      </c>
+      <c r="E71" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71">
+        <v>11700000</v>
+      </c>
+      <c r="G71">
+        <v>12400000</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72">
+        <v>2023</v>
+      </c>
+      <c r="E72" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72">
+        <v>8640000</v>
+      </c>
+      <c r="G72">
+        <v>9480000</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73">
+        <v>9450000</v>
+      </c>
+      <c r="G73">
+        <v>9450000</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74">
+        <v>2023</v>
+      </c>
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74">
+        <v>9900000</v>
+      </c>
+      <c r="G74">
+        <v>9900000</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>13</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="E75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75">
+        <v>12923900</v>
+      </c>
+      <c r="G75">
+        <v>13529900</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>10</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="E76" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76">
+        <v>13300000</v>
+      </c>
+      <c r="G76">
+        <v>13300000</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>12</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="E77" t="s">
+        <v>116</v>
+      </c>
+      <c r="F77">
+        <v>13350000</v>
+      </c>
+      <c r="G77">
+        <v>14350000</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>9</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="E78" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78">
+        <v>13730000</v>
+      </c>
+      <c r="G78">
+        <v>13730000</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="E79" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79">
+        <v>14710000</v>
+      </c>
+      <c r="G79">
+        <v>15650000</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>8</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80">
+        <v>2022</v>
+      </c>
+      <c r="E80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80">
+        <v>11350000</v>
+      </c>
+      <c r="G80">
+        <v>11990000</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81">
+        <v>2023</v>
+      </c>
+      <c r="E81" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81">
+        <v>11450000</v>
+      </c>
+      <c r="G81">
+        <v>12290000</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82">
+        <v>2023</v>
+      </c>
+      <c r="E82" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82">
+        <v>12881000</v>
+      </c>
+      <c r="G82">
+        <v>12881000</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="E83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83">
+        <v>14100000</v>
+      </c>
+      <c r="G83">
+        <v>14700000</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84">
+        <v>2022</v>
+      </c>
+      <c r="E84" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84">
+        <v>13811500</v>
+      </c>
+      <c r="G84">
+        <v>13871500</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85">
+        <v>2023</v>
+      </c>
+      <c r="E85" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85">
+        <v>13100000</v>
+      </c>
+      <c r="G85">
+        <v>13990000</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86">
+        <v>13303000</v>
+      </c>
+      <c r="G86">
+        <v>13703000</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87">
+        <v>2022</v>
+      </c>
+      <c r="E87" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87">
+        <v>13246800</v>
+      </c>
+      <c r="G87">
+        <v>13606800</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88">
+        <v>2022</v>
+      </c>
+      <c r="E88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88">
+        <v>13003800</v>
+      </c>
+      <c r="G88">
+        <v>13063800</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="E89" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89">
+        <v>14200000</v>
+      </c>
+      <c r="G89">
+        <v>15200000</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90">
+        <v>2022</v>
+      </c>
+      <c r="E90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90">
+        <v>13190000</v>
+      </c>
+      <c r="G90">
+        <v>13190000</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91">
+        <v>2023</v>
+      </c>
+      <c r="E91" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91">
+        <v>11600000</v>
+      </c>
+      <c r="G91">
+        <v>12500000</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>15</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="E92" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92">
+        <v>12840000</v>
+      </c>
+      <c r="G92">
+        <v>13680000</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93">
+        <v>12900000</v>
+      </c>
+      <c r="G93">
+        <v>13650000</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>23</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="E94" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94">
+        <v>13390000</v>
+      </c>
+      <c r="G94">
+        <v>13390000</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>12</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="E95" t="s">
+        <v>120</v>
+      </c>
+      <c r="F95">
+        <v>14595000</v>
+      </c>
+      <c r="G95">
+        <v>14595000</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="E96" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96">
+        <v>14650000</v>
+      </c>
+      <c r="G96">
+        <v>14650000</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+      <c r="K96">
         <v>24</v>
       </c>
-      <c r="F27">
-        <v>14550000</v>
-      </c>
-      <c r="G27">
-        <v>15900000</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
+      <c r="L96" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97">
+        <v>2023</v>
+      </c>
+      <c r="E97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97">
+        <v>13990000</v>
+      </c>
+      <c r="G97">
+        <v>13990000</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>9</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="E98" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98">
+        <v>15600000</v>
+      </c>
+      <c r="G98">
+        <v>15600000</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>15</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="E99" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99">
+        <v>16500000</v>
+      </c>
+      <c r="G99">
+        <v>17490000</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+      <c r="K99">
+        <v>14</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100">
+        <v>2022</v>
+      </c>
+      <c r="E100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100">
+        <v>10500000</v>
+      </c>
+      <c r="G100">
+        <v>11400000</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101">
+        <v>2023</v>
+      </c>
+      <c r="E101" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101">
+        <v>15300000</v>
+      </c>
+      <c r="G101">
+        <v>15300000</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="B102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102">
+        <v>2023</v>
+      </c>
+      <c r="E102" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102">
+        <v>11100000</v>
+      </c>
+      <c r="G102">
+        <v>11800000</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103">
+        <v>2023</v>
+      </c>
+      <c r="E103" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103">
+        <v>18550000</v>
+      </c>
+      <c r="G103">
+        <v>18550000</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104">
+        <v>2023</v>
+      </c>
+      <c r="E104" t="s">
+        <v>131</v>
+      </c>
+      <c r="F104">
+        <v>22440000</v>
+      </c>
+      <c r="G104">
+        <v>22440000</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105">
+        <v>2022</v>
+      </c>
+      <c r="E105" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105">
+        <v>17600000</v>
+      </c>
+      <c r="G105">
+        <v>18600000</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="E106" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106">
+        <v>19939400</v>
+      </c>
+      <c r="G106">
+        <v>19999400</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107">
+        <v>2023</v>
+      </c>
+      <c r="E107" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107">
+        <v>17500000</v>
+      </c>
+      <c r="G107">
+        <v>17500000</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>3</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108">
+        <v>2021</v>
+      </c>
+      <c r="E108" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108">
+        <v>9588000</v>
+      </c>
+      <c r="G108">
+        <v>9648000</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109">
+        <v>2021</v>
+      </c>
+      <c r="E109" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109">
+        <v>9999000</v>
+      </c>
+      <c r="G109">
+        <v>9999000</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1389,6 +4415,88 @@
     <hyperlink ref="L25" r:id="rId24"/>
     <hyperlink ref="L26" r:id="rId25"/>
     <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
+    <hyperlink ref="L31" r:id="rId30"/>
+    <hyperlink ref="L32" r:id="rId31"/>
+    <hyperlink ref="L33" r:id="rId32"/>
+    <hyperlink ref="L34" r:id="rId33"/>
+    <hyperlink ref="L35" r:id="rId34"/>
+    <hyperlink ref="L36" r:id="rId35"/>
+    <hyperlink ref="L37" r:id="rId36"/>
+    <hyperlink ref="L38" r:id="rId37"/>
+    <hyperlink ref="L39" r:id="rId38"/>
+    <hyperlink ref="L40" r:id="rId39"/>
+    <hyperlink ref="L41" r:id="rId40"/>
+    <hyperlink ref="L42" r:id="rId41"/>
+    <hyperlink ref="L43" r:id="rId42"/>
+    <hyperlink ref="L44" r:id="rId43"/>
+    <hyperlink ref="L45" r:id="rId44"/>
+    <hyperlink ref="L46" r:id="rId45"/>
+    <hyperlink ref="L47" r:id="rId46"/>
+    <hyperlink ref="L48" r:id="rId47"/>
+    <hyperlink ref="L49" r:id="rId48"/>
+    <hyperlink ref="L50" r:id="rId49"/>
+    <hyperlink ref="L51" r:id="rId50"/>
+    <hyperlink ref="L52" r:id="rId51"/>
+    <hyperlink ref="L53" r:id="rId52"/>
+    <hyperlink ref="L54" r:id="rId53"/>
+    <hyperlink ref="L55" r:id="rId54"/>
+    <hyperlink ref="L56" r:id="rId55"/>
+    <hyperlink ref="L57" r:id="rId56"/>
+    <hyperlink ref="L58" r:id="rId57"/>
+    <hyperlink ref="L59" r:id="rId58"/>
+    <hyperlink ref="L60" r:id="rId59"/>
+    <hyperlink ref="L61" r:id="rId60"/>
+    <hyperlink ref="L62" r:id="rId61"/>
+    <hyperlink ref="L63" r:id="rId62"/>
+    <hyperlink ref="L64" r:id="rId63"/>
+    <hyperlink ref="L65" r:id="rId64"/>
+    <hyperlink ref="L66" r:id="rId65"/>
+    <hyperlink ref="L67" r:id="rId66"/>
+    <hyperlink ref="L68" r:id="rId67"/>
+    <hyperlink ref="L69" r:id="rId68"/>
+    <hyperlink ref="L70" r:id="rId69"/>
+    <hyperlink ref="L71" r:id="rId70"/>
+    <hyperlink ref="L72" r:id="rId71"/>
+    <hyperlink ref="L73" r:id="rId72"/>
+    <hyperlink ref="L74" r:id="rId73"/>
+    <hyperlink ref="L75" r:id="rId74"/>
+    <hyperlink ref="L76" r:id="rId75"/>
+    <hyperlink ref="L77" r:id="rId76"/>
+    <hyperlink ref="L78" r:id="rId77"/>
+    <hyperlink ref="L79" r:id="rId78"/>
+    <hyperlink ref="L80" r:id="rId79"/>
+    <hyperlink ref="L81" r:id="rId80"/>
+    <hyperlink ref="L82" r:id="rId81"/>
+    <hyperlink ref="L83" r:id="rId82"/>
+    <hyperlink ref="L84" r:id="rId83"/>
+    <hyperlink ref="L85" r:id="rId84"/>
+    <hyperlink ref="L86" r:id="rId85"/>
+    <hyperlink ref="L87" r:id="rId86"/>
+    <hyperlink ref="L88" r:id="rId87"/>
+    <hyperlink ref="L89" r:id="rId88"/>
+    <hyperlink ref="L90" r:id="rId89"/>
+    <hyperlink ref="L91" r:id="rId90"/>
+    <hyperlink ref="L92" r:id="rId91"/>
+    <hyperlink ref="L93" r:id="rId92"/>
+    <hyperlink ref="L94" r:id="rId93"/>
+    <hyperlink ref="L95" r:id="rId94"/>
+    <hyperlink ref="L96" r:id="rId95"/>
+    <hyperlink ref="L97" r:id="rId96"/>
+    <hyperlink ref="L98" r:id="rId97"/>
+    <hyperlink ref="L99" r:id="rId98"/>
+    <hyperlink ref="L100" r:id="rId99"/>
+    <hyperlink ref="L101" r:id="rId100"/>
+    <hyperlink ref="L102" r:id="rId101"/>
+    <hyperlink ref="L103" r:id="rId102"/>
+    <hyperlink ref="L104" r:id="rId103"/>
+    <hyperlink ref="L105" r:id="rId104"/>
+    <hyperlink ref="L106" r:id="rId105"/>
+    <hyperlink ref="L107" r:id="rId106"/>
+    <hyperlink ref="L108" r:id="rId107"/>
+    <hyperlink ref="L109" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1396,7 +4504,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1407,43 +4515,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1451,22 +4559,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F2">
-        <v>7750000</v>
+        <v>4300000</v>
       </c>
       <c r="G2">
-        <v>9100000</v>
+        <v>4800000</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1475,68 +4583,68 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
+        <v>140</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F3">
-        <v>7750000</v>
+        <v>4400000</v>
       </c>
       <c r="G3">
-        <v>9100000</v>
+        <v>4900000</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F4">
-        <v>7750000</v>
+        <v>4722097</v>
       </c>
       <c r="G4">
-        <v>9100000</v>
+        <v>5082097</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1545,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1553,25 +4661,25 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D5">
         <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F5">
-        <v>7000000</v>
+        <v>5100000</v>
       </c>
       <c r="G5">
-        <v>8000000</v>
+        <v>5600000</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1580,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1591,34 +4699,34 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>2022</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>7750000</v>
+        <v>5012614</v>
       </c>
       <c r="G6">
-        <v>9100000</v>
+        <v>5222614</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1626,34 +4734,34 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>2022</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="F7">
-        <v>7940000</v>
+        <v>4740000</v>
       </c>
       <c r="G7">
-        <v>9290000</v>
+        <v>5440000</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1661,31 +4769,31 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F8">
-        <v>9900000</v>
+        <v>5200000</v>
       </c>
       <c r="G8">
-        <v>10900000</v>
+        <v>5900000</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1693,25 +4801,25 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F9">
-        <v>10150000</v>
+        <v>5750000</v>
       </c>
       <c r="G9">
-        <v>11500000</v>
+        <v>6450000</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1720,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1728,60 +4836,60 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F10">
-        <v>10250000</v>
+        <v>8850000</v>
       </c>
       <c r="G10">
-        <v>11500000</v>
+        <v>9690000</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F11">
-        <v>11350000</v>
+        <v>6450776</v>
       </c>
       <c r="G11">
-        <v>12700000</v>
+        <v>6510776</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1790,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1798,60 +4906,60 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>2022</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F12">
-        <v>11450000</v>
+        <v>6300000</v>
       </c>
       <c r="G12">
-        <v>12700000</v>
+        <v>6900000</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F13">
-        <v>11350000</v>
+        <v>8300000</v>
       </c>
       <c r="G13">
-        <v>12700000</v>
+        <v>9000000</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1860,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1868,25 +4976,25 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="F14">
-        <v>9316680</v>
+        <v>9100000</v>
       </c>
       <c r="G14">
-        <v>9816680</v>
+        <v>9890000</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1895,147 +5003,147 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15">
+        <v>7200000</v>
+      </c>
+      <c r="G15">
+        <v>7840000</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15">
         <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>7000000</v>
-      </c>
-      <c r="G15">
-        <v>8350000</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F16">
-        <v>7050000</v>
+        <v>8879510</v>
       </c>
       <c r="G16">
-        <v>8400000</v>
+        <v>9456510</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="F17">
-        <v>8689900</v>
+        <v>6035000</v>
       </c>
       <c r="G17">
-        <v>8689900</v>
+        <v>6785000</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>2022</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="F18">
-        <v>7738999</v>
+        <v>6284900</v>
       </c>
       <c r="G18">
-        <v>7738999</v>
+        <v>7029900</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2043,69 +5151,69 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>2022</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F19">
-        <v>8900000</v>
+        <v>6400000</v>
       </c>
       <c r="G19">
-        <v>10250000</v>
+        <v>7100000</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>2022</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="F20">
-        <v>9350000</v>
+        <v>7000000</v>
       </c>
       <c r="G20">
-        <v>10700000</v>
+        <v>7800000</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -2113,60 +5221,60 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D21">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F21">
-        <v>10150000</v>
+        <v>7000000</v>
       </c>
       <c r="G21">
-        <v>11500000</v>
+        <v>7700000</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>2023</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>11450000</v>
+        <v>9324700</v>
       </c>
       <c r="G22">
-        <v>12700000</v>
+        <v>9991700</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2175,77 +5283,77 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D23">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F23">
-        <v>7250000</v>
+        <v>15650000</v>
       </c>
       <c r="G23">
-        <v>8600000</v>
+        <v>15650000</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>2022</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F24">
-        <v>7350000</v>
+        <v>13500000</v>
       </c>
       <c r="G24">
-        <v>8700000</v>
+        <v>13500000</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2253,60 +5361,60 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>2023</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F25">
-        <v>7350000</v>
+        <v>4240000</v>
       </c>
       <c r="G25">
-        <v>8700000</v>
+        <v>4880000</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>2023</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="F26">
-        <v>7750000</v>
+        <v>4408695</v>
       </c>
       <c r="G26">
-        <v>9100000</v>
+        <v>4953695</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2315,45 +5423,2924 @@
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27">
+        <v>2023</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27">
+        <v>4636000</v>
+      </c>
+      <c r="G27">
+        <v>4986000</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <v>2023</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28">
+        <v>4200000</v>
+      </c>
+      <c r="G28">
+        <v>4800000</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29">
+        <v>7007650</v>
+      </c>
+      <c r="G29">
+        <v>8007650</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30">
+        <v>7870000</v>
+      </c>
+      <c r="G30">
+        <v>8170000</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>2023</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31">
+        <v>9190000</v>
+      </c>
+      <c r="G31">
+        <v>10080000</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>2022</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32">
+        <v>7050000</v>
+      </c>
+      <c r="G32">
+        <v>7800000</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <v>2022</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33">
+        <v>7172990</v>
+      </c>
+      <c r="G33">
+        <v>7532990</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34">
+        <v>7100000</v>
+      </c>
+      <c r="G34">
+        <v>7800000</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>2022</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>7472990</v>
+      </c>
+      <c r="G35">
+        <v>7532990</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36">
+        <v>7450000</v>
+      </c>
+      <c r="G36">
+        <v>8200000</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>2022</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37">
+        <v>7913853</v>
+      </c>
+      <c r="G37">
+        <v>7973853</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>2023</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38">
+        <v>7590000</v>
+      </c>
+      <c r="G38">
+        <v>8280000</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39">
+        <v>7833166</v>
+      </c>
+      <c r="G39">
+        <v>8193166</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>2023</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40">
+        <v>7400000</v>
+      </c>
+      <c r="G40">
+        <v>8100000</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41">
+        <v>2023</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41">
+        <v>7660885</v>
+      </c>
+      <c r="G41">
+        <v>8298885</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>2023</v>
+      </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42">
+        <v>7839460</v>
+      </c>
+      <c r="G42">
+        <v>8239460</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
+      <c r="L42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>2023</v>
+      </c>
+      <c r="E43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43">
+        <v>8300000</v>
+      </c>
+      <c r="G43">
+        <v>8300000</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44">
+        <v>7200000</v>
+      </c>
+      <c r="G44">
+        <v>7800000</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45">
+        <v>2022</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45">
+        <v>7380000</v>
+      </c>
+      <c r="G45">
+        <v>7380000</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <v>2022</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46">
+        <v>7500000</v>
+      </c>
+      <c r="G46">
+        <v>7500000</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>2022</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47">
+        <v>8400000</v>
+      </c>
+      <c r="G47">
+        <v>9100000</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>2023</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48">
+        <v>8000000</v>
+      </c>
+      <c r="G48">
+        <v>8600000</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49">
+        <v>2023</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49">
+        <v>8800000</v>
+      </c>
+      <c r="G49">
+        <v>8800000</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50">
+        <v>2023</v>
+      </c>
+      <c r="E50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50">
+        <v>7150000</v>
+      </c>
+      <c r="G50">
+        <v>7900000</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>2023</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51">
+        <v>7450000</v>
+      </c>
+      <c r="G51">
+        <v>8200000</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52">
+        <v>2022</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52">
+        <v>8807730</v>
+      </c>
+      <c r="G52">
+        <v>8867730</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53">
+        <v>2023</v>
+      </c>
+      <c r="E53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53">
+        <v>7800000</v>
+      </c>
+      <c r="G53">
+        <v>8590000</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54">
+        <v>4458000</v>
+      </c>
+      <c r="G54">
+        <v>5208000</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55">
+        <v>5999000</v>
+      </c>
+      <c r="G55">
+        <v>5999000</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56">
+        <v>2022</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56">
+        <v>7750640</v>
+      </c>
+      <c r="G56">
+        <v>8404640</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>2022</v>
+      </c>
+      <c r="E57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57">
+        <v>8882120</v>
+      </c>
+      <c r="G57">
+        <v>9631120</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>2023</v>
+      </c>
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58">
+        <v>8891020</v>
+      </c>
+      <c r="G58">
+        <v>9792020</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>33</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M58">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>2023</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59">
+        <v>8900000</v>
+      </c>
+      <c r="G59">
+        <v>9700000</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>2023</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60">
+        <v>8990000</v>
+      </c>
+      <c r="G60">
+        <v>9890000</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>2023</v>
+      </c>
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61">
+        <v>9802582</v>
+      </c>
+      <c r="G61">
+        <v>10202582</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>47</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62">
+        <v>2023</v>
+      </c>
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62">
+        <v>9950000</v>
+      </c>
+      <c r="G62">
+        <v>9950000</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>45</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63">
+        <v>2023</v>
+      </c>
+      <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63">
+        <v>10172120</v>
+      </c>
+      <c r="G63">
+        <v>10692120</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>2023</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="L63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64">
+        <v>2023</v>
+      </c>
+      <c r="E64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64">
+        <v>11780000</v>
+      </c>
+      <c r="G64">
+        <v>12530000</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65">
+        <v>2023</v>
+      </c>
+      <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65">
+        <v>12057020</v>
+      </c>
+      <c r="G65">
+        <v>12457020</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>14</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66">
+        <v>2023</v>
+      </c>
+      <c r="E66" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66">
+        <v>12800000</v>
+      </c>
+      <c r="G66">
+        <v>12800000</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>13</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+      <c r="E67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67">
+        <v>10005000</v>
+      </c>
+      <c r="G67">
+        <v>10005000</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>19</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+      <c r="E68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68">
+        <v>10990000</v>
+      </c>
+      <c r="G68">
+        <v>10990000</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69">
+        <v>2022</v>
+      </c>
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69">
+        <v>11289000</v>
+      </c>
+      <c r="G69">
+        <v>11989000</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>8</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70">
+        <v>2023</v>
+      </c>
+      <c r="E70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70">
+        <v>10290000</v>
+      </c>
+      <c r="G70">
+        <v>10290000</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71">
+        <v>2022</v>
+      </c>
+      <c r="E71" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71">
+        <v>11700000</v>
+      </c>
+      <c r="G71">
+        <v>12400000</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72">
+        <v>2023</v>
+      </c>
+      <c r="E72" t="s">
+        <v>119</v>
+      </c>
+      <c r="F72">
+        <v>8640000</v>
+      </c>
+      <c r="G72">
+        <v>9480000</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73">
+        <v>9450000</v>
+      </c>
+      <c r="G73">
+        <v>9450000</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74">
+        <v>2023</v>
+      </c>
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74">
+        <v>9900000</v>
+      </c>
+      <c r="G74">
+        <v>9900000</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>13</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75">
+        <v>2023</v>
+      </c>
+      <c r="E75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75">
+        <v>12923900</v>
+      </c>
+      <c r="G75">
+        <v>13529900</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>10</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76">
+        <v>2023</v>
+      </c>
+      <c r="E76" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76">
+        <v>13300000</v>
+      </c>
+      <c r="G76">
+        <v>13300000</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>12</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77">
+        <v>2023</v>
+      </c>
+      <c r="E77" t="s">
+        <v>116</v>
+      </c>
+      <c r="F77">
+        <v>13350000</v>
+      </c>
+      <c r="G77">
+        <v>14350000</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>9</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78">
+        <v>2023</v>
+      </c>
+      <c r="E78" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78">
+        <v>13730000</v>
+      </c>
+      <c r="G78">
+        <v>13730000</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79">
+        <v>2023</v>
+      </c>
+      <c r="E79" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79">
+        <v>14710000</v>
+      </c>
+      <c r="G79">
+        <v>15650000</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>8</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80">
+        <v>2022</v>
+      </c>
+      <c r="E80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80">
+        <v>11350000</v>
+      </c>
+      <c r="G80">
+        <v>11990000</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81">
+        <v>2023</v>
+      </c>
+      <c r="E81" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81">
+        <v>11450000</v>
+      </c>
+      <c r="G81">
+        <v>12290000</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82">
+        <v>2023</v>
+      </c>
+      <c r="E82" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82">
+        <v>12881000</v>
+      </c>
+      <c r="G82">
+        <v>12881000</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83">
+        <v>2023</v>
+      </c>
+      <c r="E83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83">
+        <v>14100000</v>
+      </c>
+      <c r="G83">
+        <v>14700000</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84">
+        <v>2022</v>
+      </c>
+      <c r="E84" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84">
+        <v>13811500</v>
+      </c>
+      <c r="G84">
+        <v>13871500</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85">
+        <v>2023</v>
+      </c>
+      <c r="E85" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85">
+        <v>13100000</v>
+      </c>
+      <c r="G85">
+        <v>13990000</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86">
+        <v>2023</v>
+      </c>
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86">
+        <v>13303000</v>
+      </c>
+      <c r="G86">
+        <v>13703000</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87">
+        <v>2022</v>
+      </c>
+      <c r="E87" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87">
+        <v>13246800</v>
+      </c>
+      <c r="G87">
+        <v>13606800</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88">
+        <v>2022</v>
+      </c>
+      <c r="E88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88">
+        <v>13003800</v>
+      </c>
+      <c r="G88">
+        <v>13063800</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89">
+        <v>2022</v>
+      </c>
+      <c r="E89" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89">
+        <v>14200000</v>
+      </c>
+      <c r="G89">
+        <v>15200000</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90">
+        <v>2022</v>
+      </c>
+      <c r="E90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90">
+        <v>13190000</v>
+      </c>
+      <c r="G90">
+        <v>13190000</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91">
+        <v>2023</v>
+      </c>
+      <c r="E91" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91">
+        <v>11600000</v>
+      </c>
+      <c r="G91">
+        <v>12500000</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>15</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" t="s">
+        <v>107</v>
+      </c>
+      <c r="D92">
+        <v>2023</v>
+      </c>
+      <c r="E92" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92">
+        <v>12840000</v>
+      </c>
+      <c r="G92">
+        <v>13680000</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93">
+        <v>2023</v>
+      </c>
+      <c r="E93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93">
+        <v>12900000</v>
+      </c>
+      <c r="G93">
+        <v>13650000</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>23</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94">
+        <v>2023</v>
+      </c>
+      <c r="E94" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94">
+        <v>13390000</v>
+      </c>
+      <c r="G94">
+        <v>13390000</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>12</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95">
+        <v>2023</v>
+      </c>
+      <c r="E95" t="s">
+        <v>120</v>
+      </c>
+      <c r="F95">
+        <v>14595000</v>
+      </c>
+      <c r="G95">
+        <v>14595000</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96">
+        <v>2023</v>
+      </c>
+      <c r="E96" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96">
+        <v>14650000</v>
+      </c>
+      <c r="G96">
+        <v>14650000</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+      <c r="K96">
         <v>24</v>
       </c>
-      <c r="F27">
-        <v>14550000</v>
-      </c>
-      <c r="G27">
-        <v>15900000</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
+      <c r="L96" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97">
+        <v>2023</v>
+      </c>
+      <c r="E97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97">
+        <v>13990000</v>
+      </c>
+      <c r="G97">
+        <v>13990000</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>9</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98">
+        <v>2023</v>
+      </c>
+      <c r="E98" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98">
+        <v>15600000</v>
+      </c>
+      <c r="G98">
+        <v>15600000</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>15</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99">
+        <v>2023</v>
+      </c>
+      <c r="E99" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99">
+        <v>16500000</v>
+      </c>
+      <c r="G99">
+        <v>17490000</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+      <c r="K99">
+        <v>14</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100">
+        <v>2022</v>
+      </c>
+      <c r="E100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100">
+        <v>10500000</v>
+      </c>
+      <c r="G100">
+        <v>11400000</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101">
+        <v>2023</v>
+      </c>
+      <c r="E101" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101">
+        <v>15300000</v>
+      </c>
+      <c r="G101">
+        <v>15300000</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102">
+        <v>2023</v>
+      </c>
+      <c r="E102" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102">
+        <v>11100000</v>
+      </c>
+      <c r="G102">
+        <v>11800000</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103">
+        <v>2023</v>
+      </c>
+      <c r="E103" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103">
+        <v>18550000</v>
+      </c>
+      <c r="G103">
+        <v>18550000</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104">
+        <v>2023</v>
+      </c>
+      <c r="E104" t="s">
+        <v>131</v>
+      </c>
+      <c r="F104">
+        <v>22440000</v>
+      </c>
+      <c r="G104">
+        <v>22440000</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105">
+        <v>2022</v>
+      </c>
+      <c r="E105" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105">
+        <v>17600000</v>
+      </c>
+      <c r="G105">
+        <v>18600000</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106">
+        <v>2022</v>
+      </c>
+      <c r="E106" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106">
+        <v>19939400</v>
+      </c>
+      <c r="G106">
+        <v>19999400</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>36</v>
+      </c>
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107">
+        <v>2023</v>
+      </c>
+      <c r="E107" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107">
+        <v>17500000</v>
+      </c>
+      <c r="G107">
+        <v>17500000</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>3</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108">
+        <v>2021</v>
+      </c>
+      <c r="E108" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108">
+        <v>9588000</v>
+      </c>
+      <c r="G108">
+        <v>9648000</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109">
+        <v>2021</v>
+      </c>
+      <c r="E109" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109">
+        <v>9999000</v>
+      </c>
+      <c r="G109">
+        <v>9999000</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2384,6 +8371,88 @@
     <hyperlink ref="L25" r:id="rId24"/>
     <hyperlink ref="L26" r:id="rId25"/>
     <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
+    <hyperlink ref="L31" r:id="rId30"/>
+    <hyperlink ref="L32" r:id="rId31"/>
+    <hyperlink ref="L33" r:id="rId32"/>
+    <hyperlink ref="L34" r:id="rId33"/>
+    <hyperlink ref="L35" r:id="rId34"/>
+    <hyperlink ref="L36" r:id="rId35"/>
+    <hyperlink ref="L37" r:id="rId36"/>
+    <hyperlink ref="L38" r:id="rId37"/>
+    <hyperlink ref="L39" r:id="rId38"/>
+    <hyperlink ref="L40" r:id="rId39"/>
+    <hyperlink ref="L41" r:id="rId40"/>
+    <hyperlink ref="L42" r:id="rId41"/>
+    <hyperlink ref="L43" r:id="rId42"/>
+    <hyperlink ref="L44" r:id="rId43"/>
+    <hyperlink ref="L45" r:id="rId44"/>
+    <hyperlink ref="L46" r:id="rId45"/>
+    <hyperlink ref="L47" r:id="rId46"/>
+    <hyperlink ref="L48" r:id="rId47"/>
+    <hyperlink ref="L49" r:id="rId48"/>
+    <hyperlink ref="L50" r:id="rId49"/>
+    <hyperlink ref="L51" r:id="rId50"/>
+    <hyperlink ref="L52" r:id="rId51"/>
+    <hyperlink ref="L53" r:id="rId52"/>
+    <hyperlink ref="L54" r:id="rId53"/>
+    <hyperlink ref="L55" r:id="rId54"/>
+    <hyperlink ref="L56" r:id="rId55"/>
+    <hyperlink ref="L57" r:id="rId56"/>
+    <hyperlink ref="L58" r:id="rId57"/>
+    <hyperlink ref="L59" r:id="rId58"/>
+    <hyperlink ref="L60" r:id="rId59"/>
+    <hyperlink ref="L61" r:id="rId60"/>
+    <hyperlink ref="L62" r:id="rId61"/>
+    <hyperlink ref="L63" r:id="rId62"/>
+    <hyperlink ref="L64" r:id="rId63"/>
+    <hyperlink ref="L65" r:id="rId64"/>
+    <hyperlink ref="L66" r:id="rId65"/>
+    <hyperlink ref="L67" r:id="rId66"/>
+    <hyperlink ref="L68" r:id="rId67"/>
+    <hyperlink ref="L69" r:id="rId68"/>
+    <hyperlink ref="L70" r:id="rId69"/>
+    <hyperlink ref="L71" r:id="rId70"/>
+    <hyperlink ref="L72" r:id="rId71"/>
+    <hyperlink ref="L73" r:id="rId72"/>
+    <hyperlink ref="L74" r:id="rId73"/>
+    <hyperlink ref="L75" r:id="rId74"/>
+    <hyperlink ref="L76" r:id="rId75"/>
+    <hyperlink ref="L77" r:id="rId76"/>
+    <hyperlink ref="L78" r:id="rId77"/>
+    <hyperlink ref="L79" r:id="rId78"/>
+    <hyperlink ref="L80" r:id="rId79"/>
+    <hyperlink ref="L81" r:id="rId80"/>
+    <hyperlink ref="L82" r:id="rId81"/>
+    <hyperlink ref="L83" r:id="rId82"/>
+    <hyperlink ref="L84" r:id="rId83"/>
+    <hyperlink ref="L85" r:id="rId84"/>
+    <hyperlink ref="L86" r:id="rId85"/>
+    <hyperlink ref="L87" r:id="rId86"/>
+    <hyperlink ref="L88" r:id="rId87"/>
+    <hyperlink ref="L89" r:id="rId88"/>
+    <hyperlink ref="L90" r:id="rId89"/>
+    <hyperlink ref="L91" r:id="rId90"/>
+    <hyperlink ref="L92" r:id="rId91"/>
+    <hyperlink ref="L93" r:id="rId92"/>
+    <hyperlink ref="L94" r:id="rId93"/>
+    <hyperlink ref="L95" r:id="rId94"/>
+    <hyperlink ref="L96" r:id="rId95"/>
+    <hyperlink ref="L97" r:id="rId96"/>
+    <hyperlink ref="L98" r:id="rId97"/>
+    <hyperlink ref="L99" r:id="rId98"/>
+    <hyperlink ref="L100" r:id="rId99"/>
+    <hyperlink ref="L101" r:id="rId100"/>
+    <hyperlink ref="L102" r:id="rId101"/>
+    <hyperlink ref="L103" r:id="rId102"/>
+    <hyperlink ref="L104" r:id="rId103"/>
+    <hyperlink ref="L105" r:id="rId104"/>
+    <hyperlink ref="L106" r:id="rId105"/>
+    <hyperlink ref="L107" r:id="rId106"/>
+    <hyperlink ref="L108" r:id="rId107"/>
+    <hyperlink ref="L109" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/after_pandas.xlsx
+++ b/after_pandas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="59">
   <si>
     <t>Марка, модель</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Jeep Gladiator II (JT)</t>
   </si>
   <si>
-    <t>Jeep Grand Cherokee 4xe V (WL)</t>
-  </si>
-  <si>
     <t>Jeep Grand Cherokee L V (WL)</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
     <t>Импорт</t>
   </si>
   <si>
-    <t>Summit</t>
-  </si>
-  <si>
     <t>Limited</t>
   </si>
   <si>
@@ -53,33 +47,27 @@
     <t>Summit Reserve</t>
   </si>
   <si>
-    <t>Altitude</t>
-  </si>
-  <si>
     <t>Rubicon</t>
   </si>
   <si>
+    <t>Sahara</t>
+  </si>
+  <si>
     <t>Модификация</t>
   </si>
   <si>
     <t>пикап двойная кабина / 3.6 л / 285 л.с. / бензин / автомат / полный</t>
   </si>
   <si>
-    <t>внедорожник 5 дв. / 2.0 л / 380 л.с. / гибрид / автомат / полный</t>
-  </si>
-  <si>
     <t>внедорожник 5 дв. / 3.6 л / 294 л.с. / бензин / автомат / полный</t>
   </si>
   <si>
+    <t>внедорожник 5 дв. / 2.0 л / 272 л.с. / бензин / автомат / полный</t>
+  </si>
+  <si>
     <t>внедорожник 5 дв. / 3.6 л / 297 л.с. / бензин / автомат / полный</t>
   </si>
   <si>
-    <t>внедорожник 5 дв. / 2.0 л / 272 л.с. / бензин / автомат / полный</t>
-  </si>
-  <si>
-    <t>внедорожник 5 дв. / 6.4 л / 470 л.с. / бензин / автомат / полный</t>
-  </si>
-  <si>
     <t>Год</t>
   </si>
   <si>
@@ -92,10 +80,16 @@
     <t>РОЛЬФ Алтуфьево Мультибренд Премиум</t>
   </si>
   <si>
+    <t>FRESH - Автомобильный маркетплейс Москва</t>
+  </si>
+  <si>
     <t>АВИЛОН Премиум</t>
   </si>
   <si>
-    <t>Каскад-Авто</t>
+    <t>Мультибрендовый салон на Октябрьской, 300</t>
+  </si>
+  <si>
+    <t>Major Jeep Новорижский</t>
   </si>
   <si>
     <t>Цена со скидками</t>
@@ -119,33 +113,27 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/jeep/gladiator/21698322/23570601/1121019907-9566a85c/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/gladiator/21698322/23570601/1122033889-c587c1f4/</t>
+    <t>https://auto.ru/cars/new/group/jeep/gladiator/21698322/23570601/1121078455-ed64dd53/</t>
   </si>
   <si>
     <t>https://auto.ru/cars/new/group/jeep/gladiator/21698322/23570601/1122033897-6e491343/</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23302090/23663647/1122033531-a24422b3/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23329942/1122033537-3afa16d4/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23329942/1121493902-85b4e2d4/</t>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23329942/1121493901-df7e74d2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23329942/1121341547-ca82c6f9/</t>
   </si>
   <si>
     <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23329942/1122033522-b0074787/</t>
   </si>
   <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330072/1122033510-064b3c06/</t>
+  </si>
+  <si>
     <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330072/1121493900-0e51cf97/</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330072/1122033510-064b3c06/</t>
-  </si>
-  <si>
     <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330090/1121489070-e16ccb41/</t>
   </si>
   <si>
@@ -155,31 +143,34 @@
     <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23058127/23330090/1121489069-9aef295b/</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23669171/1121987329-4cb7f7c4/</t>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1120704528-a305dc7d/</t>
   </si>
   <si>
     <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1122033519-99cb3b1e/</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1120704536-88a87354/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1121950712-6dfa1d42/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23329942/1119898092-ad870d47/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1120812354-4d2be081/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1122033528-c30875c9/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1121939577-6645adf9/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330090/1122033520-0defee7b/</t>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1122155803-d3b9e2a4/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1121950713-b727f7af/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23776467/23329942/1122118697-61c9f9b2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1120812357-25fef529/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1122104901-5cb0d54e/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1121952676-62c65487/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330072/1122119049-5a47a8b2/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/grand_cherokee/23301959/23330090/1122033524-6a67067c/</t>
   </si>
   <si>
     <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1122033885-c0be020b/</t>
@@ -188,13 +179,13 @@
     <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1120914669-bf48e515/</t>
   </si>
   <si>
-    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1122033512-2b82f826/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1121078460-64fa960f/</t>
-  </si>
-  <si>
-    <t>https://auto.ru/cars/new/group/jeep/wrangler/22879094/23538874/1121951620-a01a19d4/</t>
+    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1121026320-5e96a26d/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369379/1122033890-229810dd/</t>
+  </si>
+  <si>
+    <t>https://auto.ru/cars/new/group/jeep/wrangler/21172526/21369341/1122116492-7a2d804f/</t>
   </si>
   <si>
     <t>В наличии</t>
@@ -545,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,43 +547,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -600,22 +591,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>7750000</v>
+        <v>7650000</v>
       </c>
       <c r="G2">
-        <v>9100000</v>
+        <v>8900000</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -624,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -632,42 +623,45 @@
     </row>
     <row r="3" spans="1:14">
       <c r="E3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>7750000</v>
+        <v>7650000</v>
       </c>
       <c r="G3">
-        <v>9100000</v>
+        <v>8900000</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>7750000</v>
+        <v>7850000</v>
       </c>
       <c r="G4">
         <v>9100000</v>
@@ -679,132 +673,117 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>7900000</v>
+      </c>
+      <c r="G5">
+        <v>9250000</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>9900000</v>
+      </c>
+      <c r="G6">
+        <v>10900000</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>2022</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>7000000</v>
-      </c>
-      <c r="G5">
-        <v>8000000</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>10050000</v>
+      </c>
+      <c r="G7">
+        <v>11300000</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="M7">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>7750000</v>
-      </c>
-      <c r="G6">
-        <v>9100000</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:14">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>10250000</v>
+      </c>
+      <c r="G8">
+        <v>11500000</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>7940000</v>
-      </c>
-      <c r="G7">
-        <v>9290000</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>2023</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>9900000</v>
-      </c>
-      <c r="G8">
-        <v>10900000</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -812,22 +791,22 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>10150000</v>
+        <v>11250000</v>
       </c>
       <c r="G9">
-        <v>11500000</v>
+        <v>12500000</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -836,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -844,13 +823,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="E10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>10250000</v>
+        <v>11250000</v>
       </c>
       <c r="G10">
-        <v>11500000</v>
+        <v>12500000</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -859,30 +838,30 @@
         <v>3</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>11350000</v>
+        <v>11250000</v>
       </c>
       <c r="G11">
-        <v>12700000</v>
+        <v>12500000</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -891,132 +870,114 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2023</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>6900000</v>
+      </c>
+      <c r="G12">
+        <v>8150000</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>6900000</v>
+      </c>
+      <c r="G13">
+        <v>8150000</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <v>11450000</v>
-      </c>
-      <c r="G12">
-        <v>12700000</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>7719000</v>
+      </c>
+      <c r="G14">
+        <v>7719000</v>
+      </c>
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>2023</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13">
-        <v>11350000</v>
-      </c>
-      <c r="G13">
-        <v>12700000</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>7989900</v>
+      </c>
+      <c r="G15">
+        <v>8769900</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>2022</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>9316680</v>
-      </c>
-      <c r="G14">
-        <v>9816680</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15">
-        <v>7000000</v>
-      </c>
-      <c r="G15">
-        <v>8350000</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1024,129 +985,129 @@
         <v>23</v>
       </c>
       <c r="F16">
-        <v>7050000</v>
+        <v>8400000</v>
       </c>
       <c r="G16">
-        <v>8400000</v>
+        <v>8600000</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>8700000</v>
+      </c>
+      <c r="G17">
+        <v>9950000</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>8700000</v>
+      </c>
+      <c r="G18">
+        <v>9950000</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17">
-        <v>8689900</v>
-      </c>
-      <c r="G17">
-        <v>8689900</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>2022</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18">
-        <v>7738999</v>
-      </c>
-      <c r="G18">
-        <v>7738999</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="M18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>8900000</v>
+        <v>9550000</v>
       </c>
       <c r="G19">
-        <v>10250000</v>
+        <v>10900000</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="E20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>9350000</v>
+        <v>10305000</v>
       </c>
       <c r="G20">
-        <v>10700000</v>
+        <v>11555000</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -1154,211 +1115,179 @@
     </row>
     <row r="21" spans="1:13">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>2023</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>10150000</v>
+        <v>10750000</v>
       </c>
       <c r="G21">
-        <v>11500000</v>
+        <v>12000000</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>11450000</v>
+        <v>7050000</v>
       </c>
       <c r="G22">
-        <v>12700000</v>
+        <v>8300000</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>19</v>
-      </c>
-      <c r="D23">
-        <v>2022</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
       </c>
       <c r="F23">
         <v>7250000</v>
       </c>
       <c r="G23">
-        <v>8600000</v>
+        <v>8500000</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2023</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>7650000</v>
+      </c>
+      <c r="G24">
+        <v>8900000</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>7650000</v>
+      </c>
+      <c r="G25">
+        <v>8900000</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M23">
+      <c r="M25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>2023</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>9499000</v>
+      </c>
+      <c r="G26">
+        <v>9499000</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>7350000</v>
-      </c>
-      <c r="G24">
-        <v>8700000</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25">
-        <v>2023</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25">
-        <v>7350000</v>
-      </c>
-      <c r="G25">
-        <v>8700000</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>21</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26">
-        <v>7750000</v>
-      </c>
-      <c r="G26">
-        <v>9100000</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>2023</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27">
-        <v>14550000</v>
-      </c>
-      <c r="G27">
-        <v>15900000</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1317,6 @@
     <hyperlink ref="L24" r:id="rId23"/>
     <hyperlink ref="L25" r:id="rId24"/>
     <hyperlink ref="L26" r:id="rId25"/>
-    <hyperlink ref="L27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1396,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1407,43 +1335,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1451,22 +1379,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>7750000</v>
+        <v>7650000</v>
       </c>
       <c r="G2">
-        <v>9100000</v>
+        <v>8900000</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1475,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -1486,54 +1414,54 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>7750000</v>
+        <v>7650000</v>
       </c>
       <c r="G3">
-        <v>9100000</v>
+        <v>8900000</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>7750000</v>
+        <v>7850000</v>
       </c>
       <c r="G4">
         <v>9100000</v>
@@ -1545,10 +1473,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1556,136 +1484,136 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>7000000</v>
+        <v>7900000</v>
       </c>
       <c r="G5">
-        <v>8000000</v>
+        <v>9250000</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>7750000</v>
+        <v>9900000</v>
       </c>
       <c r="G6">
-        <v>9100000</v>
+        <v>10900000</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>2022</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>7940000</v>
+        <v>10050000</v>
       </c>
       <c r="G7">
-        <v>9290000</v>
+        <v>11300000</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>9900000</v>
+        <v>10250000</v>
       </c>
       <c r="G8">
-        <v>10900000</v>
+        <v>11500000</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1693,25 +1621,25 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>2022</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>10150000</v>
+        <v>11250000</v>
       </c>
       <c r="G9">
-        <v>11500000</v>
+        <v>12500000</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1720,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1728,25 +1656,25 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>2022</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>10250000</v>
+        <v>11250000</v>
       </c>
       <c r="G10">
-        <v>11500000</v>
+        <v>12500000</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1755,33 +1683,33 @@
         <v>3</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>11350000</v>
+        <v>11250000</v>
       </c>
       <c r="G11">
-        <v>12700000</v>
+        <v>12500000</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1790,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1801,34 +1729,34 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>11450000</v>
+        <v>6900000</v>
       </c>
       <c r="G12">
-        <v>12700000</v>
+        <v>8150000</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1836,31 +1764,31 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>2023</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>11350000</v>
+        <v>6900000</v>
       </c>
       <c r="G13">
-        <v>12700000</v>
+        <v>8150000</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1868,34 +1796,34 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>9316680</v>
+        <v>7719000</v>
       </c>
       <c r="G14">
-        <v>9816680</v>
+        <v>7719000</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1903,48 +1831,48 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>7000000</v>
+        <v>7989900</v>
       </c>
       <c r="G15">
-        <v>8350000</v>
+        <v>8769900</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -1953,159 +1881,159 @@
         <v>23</v>
       </c>
       <c r="F16">
-        <v>7050000</v>
+        <v>8400000</v>
       </c>
       <c r="G16">
-        <v>8400000</v>
+        <v>8600000</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="D17">
-        <v>2023</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
       <c r="F17">
-        <v>8689900</v>
+        <v>8700000</v>
       </c>
       <c r="G17">
-        <v>8689900</v>
+        <v>9950000</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>2022</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>7738999</v>
+        <v>8700000</v>
       </c>
       <c r="G18">
-        <v>7738999</v>
+        <v>9950000</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>2023</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>9550000</v>
+      </c>
+      <c r="G19">
+        <v>10900000</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>2022</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19">
-        <v>8900000</v>
-      </c>
-      <c r="G19">
-        <v>10250000</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>9350000</v>
+        <v>10305000</v>
       </c>
       <c r="G20">
-        <v>10700000</v>
+        <v>11555000</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M20">
         <v>2</v>
@@ -2113,37 +2041,37 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21">
         <v>2023</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>10150000</v>
+        <v>10750000</v>
       </c>
       <c r="G21">
-        <v>11500000</v>
+        <v>12000000</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2151,209 +2079,174 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>11450000</v>
+        <v>7050000</v>
       </c>
       <c r="G22">
-        <v>12700000</v>
+        <v>8300000</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>2022</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>7250000</v>
       </c>
       <c r="G23">
-        <v>8600000</v>
+        <v>8500000</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2023</v>
+      </c>
+      <c r="E24" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
-        <v>2022</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
       <c r="F24">
-        <v>7350000</v>
+        <v>7650000</v>
       </c>
       <c r="G24">
-        <v>8700000</v>
+        <v>8900000</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>2023</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>7350000</v>
+        <v>7650000</v>
       </c>
       <c r="G25">
-        <v>8700000</v>
+        <v>8900000</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>2023</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26">
-        <v>7750000</v>
+        <v>9499000</v>
       </c>
       <c r="G26">
-        <v>9100000</v>
+        <v>9499000</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>2023</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27">
-        <v>14550000</v>
-      </c>
-      <c r="G27">
-        <v>15900000</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2276,6 @@
     <hyperlink ref="L24" r:id="rId23"/>
     <hyperlink ref="L25" r:id="rId24"/>
     <hyperlink ref="L26" r:id="rId25"/>
-    <hyperlink ref="L27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
